--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="298">
   <si>
     <t>Avengers: Endgame</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t xml:space="preserve">June </t>
+  </si>
+  <si>
+    <t>Weekly</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1291,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>

--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Banco de dados - 2019" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Banco de dados - 2019'!$A$1:$I$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Banco de dados - 2019'!$A$1:$I$233</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="299">
   <si>
     <t>Avengers: Endgame</t>
   </si>
@@ -921,6 +921,9 @@
   </si>
   <si>
     <t>Weekly</t>
+  </si>
+  <si>
+    <t>-40.0%</t>
   </si>
 </sst>
 </file>
@@ -1270,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,22 +1353,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1">
-        <v>11438921</v>
+        <v>6869431</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>209</v>
@@ -1379,22 +1382,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1">
-        <v>16649633</v>
+        <v>11438921</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>209</v>
@@ -1411,19 +1414,19 @@
         <v>294</v>
       </c>
       <c r="B5" s="1">
-        <v>23334130</v>
+        <v>16649633</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>209</v>
@@ -1440,19 +1443,19 @@
         <v>294</v>
       </c>
       <c r="B6" s="1">
-        <v>10298007</v>
+        <v>23334130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>209</v>
@@ -1469,19 +1472,19 @@
         <v>294</v>
       </c>
       <c r="B7" s="1">
-        <v>14536635</v>
+        <v>10298007</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>209</v>
@@ -1495,22 +1498,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1">
-        <v>9989039</v>
+        <v>14536635</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>209</v>
@@ -1519,7 +1522,7 @@
         <v>2019</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1527,19 +1530,19 @@
         <v>293</v>
       </c>
       <c r="B9" s="1">
-        <v>14204008</v>
+        <v>9989039</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
         <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>209</v>
@@ -1556,19 +1559,19 @@
         <v>293</v>
       </c>
       <c r="B10" s="1">
-        <v>6482381</v>
+        <v>14204008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>209</v>
@@ -1585,19 +1588,19 @@
         <v>293</v>
       </c>
       <c r="B11" s="1">
-        <v>7963748</v>
+        <v>6482381</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>209</v>
@@ -1614,19 +1617,19 @@
         <v>293</v>
       </c>
       <c r="B12" s="1">
-        <v>8340715</v>
+        <v>7963748</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
         <v>23</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>209</v>
@@ -1640,22 +1643,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1">
-        <v>9030134</v>
+        <v>8340715</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>209</v>
@@ -1672,19 +1675,19 @@
         <v>292</v>
       </c>
       <c r="B14" s="1">
-        <v>8880163</v>
+        <v>9030134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>209</v>
@@ -1701,19 +1704,19 @@
         <v>292</v>
       </c>
       <c r="B15" s="1">
-        <v>11836400</v>
+        <v>8880163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>209</v>
@@ -1730,19 +1733,19 @@
         <v>292</v>
       </c>
       <c r="B16" s="1">
-        <v>17057527</v>
+        <v>11836400</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>209</v>
@@ -1756,22 +1759,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="1">
-        <v>28046462</v>
+        <v>17057527</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>209</v>
@@ -1788,19 +1791,19 @@
         <v>291</v>
       </c>
       <c r="B18" s="1">
-        <v>7157258</v>
+        <v>28046462</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>209</v>
@@ -1817,19 +1820,19 @@
         <v>291</v>
       </c>
       <c r="B19" s="1">
-        <v>8071788</v>
+        <v>7157258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>209</v>
@@ -1846,19 +1849,19 @@
         <v>291</v>
       </c>
       <c r="B20" s="1">
-        <v>9470189</v>
+        <v>8071788</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>209</v>
@@ -1872,22 +1875,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B21" s="1">
-        <v>7234271</v>
+        <v>9470189</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>209</v>
@@ -1904,19 +1907,19 @@
         <v>290</v>
       </c>
       <c r="B22" s="1">
-        <v>7523834</v>
+        <v>7234271</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>209</v>
@@ -1933,19 +1936,19 @@
         <v>290</v>
       </c>
       <c r="B23" s="1">
-        <v>9858066</v>
+        <v>7523834</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>209</v>
@@ -1962,19 +1965,19 @@
         <v>290</v>
       </c>
       <c r="B24" s="1">
-        <v>15165807</v>
+        <v>9858066</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>209</v>
@@ -1991,19 +1994,19 @@
         <v>290</v>
       </c>
       <c r="B25" s="1">
-        <v>5058706</v>
+        <v>15165807</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>209</v>
@@ -2017,22 +2020,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B26" s="1">
-        <v>4276685</v>
+        <v>5058706</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>209</v>
@@ -2049,19 +2052,19 @@
         <v>288</v>
       </c>
       <c r="B27" s="1">
-        <v>5289915</v>
+        <v>4276685</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1">
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>209</v>
@@ -2078,19 +2081,19 @@
         <v>288</v>
       </c>
       <c r="B28" s="1">
-        <v>5235004</v>
+        <v>5289915</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>209</v>
@@ -2107,10 +2110,10 @@
         <v>288</v>
       </c>
       <c r="B29" s="1">
-        <v>6784750</v>
+        <v>5235004</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1">
         <v>17</v>
@@ -2119,7 +2122,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>209</v>
@@ -2133,13 +2136,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="1">
-        <v>8485530</v>
+        <v>6784750</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1">
         <v>17</v>
@@ -2148,7 +2151,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>209</v>
@@ -2165,19 +2168,19 @@
         <v>289</v>
       </c>
       <c r="B31" s="1">
-        <v>11135091</v>
+        <v>8485530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>209</v>
@@ -2194,19 +2197,19 @@
         <v>289</v>
       </c>
       <c r="B32" s="1">
-        <v>11933676</v>
+        <v>11135091</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>209</v>
@@ -2223,19 +2226,19 @@
         <v>289</v>
       </c>
       <c r="B33" s="1">
-        <v>14987241</v>
+        <v>11933676</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>209</v>
@@ -2249,31 +2252,31 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B34" s="1">
-        <v>2293366</v>
+        <v>14987241</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="H34" s="1">
         <v>2019</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,19 +2284,19 @@
         <v>295</v>
       </c>
       <c r="B35" s="1">
-        <v>1837807</v>
+        <v>2293366</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="D35" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="F35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>52</v>
@@ -2310,19 +2313,19 @@
         <v>295</v>
       </c>
       <c r="B36" s="1">
-        <v>4532871</v>
+        <v>1837807</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>52</v>
@@ -2336,22 +2339,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" s="1">
-        <v>5377667</v>
+        <v>4532871</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>52</v>
@@ -2368,19 +2371,19 @@
         <v>294</v>
       </c>
       <c r="B38" s="1">
-        <v>5870002</v>
+        <v>5377667</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>52</v>
@@ -2397,19 +2400,19 @@
         <v>294</v>
       </c>
       <c r="B39" s="1">
-        <v>4483325</v>
+        <v>5870002</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>52</v>
@@ -2426,19 +2429,19 @@
         <v>294</v>
       </c>
       <c r="B40" s="1">
-        <v>5715413</v>
+        <v>4483325</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>52</v>
@@ -2452,22 +2455,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="1">
-        <v>6583320</v>
+        <v>5715413</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>52</v>
@@ -2476,7 +2479,7 @@
         <v>2019</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,19 +2487,19 @@
         <v>293</v>
       </c>
       <c r="B42" s="1">
-        <v>8437172</v>
+        <v>6583320</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>52</v>
@@ -2510,22 +2513,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B43" s="1">
-        <v>1628135</v>
+        <v>8437172</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>52</v>
@@ -2542,19 +2545,19 @@
         <v>296</v>
       </c>
       <c r="B44" s="1">
-        <v>2185391</v>
+        <v>1628135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>52</v>
@@ -2568,22 +2571,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B45" s="1">
-        <v>2233064</v>
+        <v>2185391</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>52</v>
@@ -2597,13 +2600,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B46" s="1">
-        <v>2563127</v>
+        <v>2233064</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1">
         <v>36</v>
@@ -2612,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>52</v>
@@ -2629,19 +2632,19 @@
         <v>292</v>
       </c>
       <c r="B47" s="1">
-        <v>2006435</v>
+        <v>2563127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1">
         <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>52</v>
@@ -2658,19 +2661,19 @@
         <v>292</v>
       </c>
       <c r="B48" s="1">
-        <v>2681076</v>
+        <v>2006435</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>52</v>
@@ -2687,19 +2690,19 @@
         <v>292</v>
       </c>
       <c r="B49" s="1">
-        <v>3957886</v>
+        <v>2681076</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>52</v>
@@ -2713,22 +2716,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" s="1">
-        <v>7446753</v>
+        <v>3957886</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>52</v>
@@ -2745,19 +2748,19 @@
         <v>291</v>
       </c>
       <c r="B51" s="1">
-        <v>2229763</v>
+        <v>7446753</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>52</v>
@@ -2774,19 +2777,19 @@
         <v>291</v>
       </c>
       <c r="B52" s="1">
-        <v>1723093</v>
+        <v>2229763</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>52</v>
@@ -2803,19 +2806,19 @@
         <v>291</v>
       </c>
       <c r="B53" s="1">
-        <v>2141240</v>
+        <v>1723093</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>52</v>
@@ -2829,22 +2832,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B54" s="1">
-        <v>1787785</v>
+        <v>2141240</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>52</v>
@@ -2861,19 +2864,19 @@
         <v>290</v>
       </c>
       <c r="B55" s="1">
-        <v>1259519</v>
+        <v>1787785</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>52</v>
@@ -2890,19 +2893,19 @@
         <v>290</v>
       </c>
       <c r="B56" s="1">
-        <v>1770715</v>
+        <v>1259519</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>52</v>
@@ -2919,19 +2922,19 @@
         <v>290</v>
       </c>
       <c r="B57" s="1">
-        <v>2599664</v>
+        <v>1770715</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>52</v>
@@ -2948,19 +2951,19 @@
         <v>290</v>
       </c>
       <c r="B58" s="1">
-        <v>1284148</v>
+        <v>2599664</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>52</v>
@@ -2974,22 +2977,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B59" s="1">
-        <v>1579189</v>
+        <v>1284148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F59" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>52</v>
@@ -3006,10 +3009,10 @@
         <v>288</v>
       </c>
       <c r="B60" s="1">
-        <v>1520445</v>
+        <v>1579189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1">
         <v>56</v>
@@ -3018,7 +3021,7 @@
         <v>45</v>
       </c>
       <c r="F60" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>52</v>
@@ -3035,19 +3038,19 @@
         <v>288</v>
       </c>
       <c r="B61" s="1">
-        <v>1599984</v>
+        <v>1520445</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>52</v>
@@ -3064,19 +3067,19 @@
         <v>288</v>
       </c>
       <c r="B62" s="1">
-        <v>2175999</v>
+        <v>1599984</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>52</v>
@@ -3090,22 +3093,22 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1">
-        <v>2262335</v>
+        <v>2175999</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>52</v>
@@ -3122,19 +3125,19 @@
         <v>289</v>
       </c>
       <c r="B64" s="1">
-        <v>2492936</v>
+        <v>2262335</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>52</v>
@@ -3151,19 +3154,19 @@
         <v>289</v>
       </c>
       <c r="B65" s="1">
-        <v>3979678</v>
+        <v>2492936</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>52</v>
@@ -3180,19 +3183,19 @@
         <v>289</v>
       </c>
       <c r="B66" s="1">
-        <v>2772770</v>
+        <v>3979678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>52</v>
@@ -3206,31 +3209,31 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B67" s="1">
-        <v>106453172</v>
+        <v>2772770</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="H67" s="1">
         <v>2019</v>
       </c>
       <c r="I67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,19 +3270,19 @@
         <v>295</v>
       </c>
       <c r="B69" s="1">
-        <v>143151723</v>
+        <v>106453172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D69" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F69" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>132</v>
@@ -3296,19 +3299,19 @@
         <v>295</v>
       </c>
       <c r="B70" s="1">
-        <v>201006987</v>
+        <v>143151723</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F70" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>132</v>
@@ -3322,22 +3325,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B71" s="1">
-        <v>138934133</v>
+        <v>201006987</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F71" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>132</v>
@@ -3354,19 +3357,19 @@
         <v>294</v>
       </c>
       <c r="B72" s="1">
-        <v>93605223</v>
+        <v>138934133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F72" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>132</v>
@@ -3383,19 +3386,19 @@
         <v>294</v>
       </c>
       <c r="B73" s="1">
-        <v>113727604</v>
+        <v>93605223</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D73" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="F73" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>132</v>
@@ -3412,19 +3415,19 @@
         <v>294</v>
       </c>
       <c r="B74" s="1">
-        <v>110427962</v>
+        <v>113727604</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D74" s="1">
         <v>37</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>132</v>
@@ -3438,22 +3441,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" s="1">
-        <v>119400885</v>
+        <v>110427962</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F75" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>132</v>
@@ -3462,7 +3465,7 @@
         <v>2019</v>
       </c>
       <c r="I75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3470,19 +3473,19 @@
         <v>293</v>
       </c>
       <c r="B76" s="1">
-        <v>61234797</v>
+        <v>119400885</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="F76" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>132</v>
@@ -3499,19 +3502,19 @@
         <v>293</v>
       </c>
       <c r="B77" s="1">
-        <v>57588767</v>
+        <v>61234797</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>132</v>
@@ -3528,19 +3531,19 @@
         <v>293</v>
       </c>
       <c r="B78" s="1">
-        <v>111009116</v>
+        <v>57588767</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F78" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>132</v>
@@ -3557,19 +3560,19 @@
         <v>293</v>
       </c>
       <c r="B79" s="1">
-        <v>101546401</v>
+        <v>111009116</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F79" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>132</v>
@@ -3583,22 +3586,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B80" s="1">
-        <v>44032296</v>
+        <v>101546401</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D80" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F80" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>132</v>
@@ -3615,19 +3618,19 @@
         <v>292</v>
       </c>
       <c r="B81" s="1">
-        <v>47085460</v>
+        <v>44032296</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D81" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>132</v>
@@ -3644,19 +3647,19 @@
         <v>292</v>
       </c>
       <c r="B82" s="1">
-        <v>73944361</v>
+        <v>47085460</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F82" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>132</v>
@@ -3673,19 +3676,19 @@
         <v>292</v>
       </c>
       <c r="B83" s="1">
-        <v>85886422</v>
+        <v>73944361</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F83" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>132</v>
@@ -3699,22 +3702,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="1">
-        <v>180274283</v>
+        <v>85886422</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>132</v>
@@ -3731,19 +3734,19 @@
         <v>291</v>
       </c>
       <c r="B85" s="1">
-        <v>35631351</v>
+        <v>180274283</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D85" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>132</v>
@@ -3760,19 +3763,19 @@
         <v>291</v>
       </c>
       <c r="B86" s="1">
-        <v>45892431</v>
+        <v>35631351</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D86" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F86" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>132</v>
@@ -3789,19 +3792,19 @@
         <v>291</v>
       </c>
       <c r="B87" s="1">
-        <v>101042175</v>
+        <v>45892431</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D87" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F87" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>132</v>
@@ -3815,22 +3818,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B88" s="1">
-        <v>50816390</v>
+        <v>101042175</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D88" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F88" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>132</v>
@@ -3847,19 +3850,19 @@
         <v>290</v>
       </c>
       <c r="B89" s="1">
-        <v>67987140</v>
+        <v>50816390</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F89" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>132</v>
@@ -3876,19 +3879,19 @@
         <v>290</v>
       </c>
       <c r="B90" s="1">
-        <v>93567943</v>
+        <v>67987140</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D90" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F90" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>132</v>
@@ -3905,19 +3908,19 @@
         <v>290</v>
       </c>
       <c r="B91" s="1">
-        <v>131667763</v>
+        <v>93567943</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D91" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="F91" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>132</v>
@@ -3934,19 +3937,19 @@
         <v>290</v>
       </c>
       <c r="B92" s="1">
-        <v>92979065</v>
+        <v>131667763</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D92" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F92" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>132</v>
@@ -3960,22 +3963,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B93" s="1">
-        <v>122313791</v>
+        <v>92979065</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F93" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>132</v>
@@ -3992,19 +3995,19 @@
         <v>288</v>
       </c>
       <c r="B94" s="1">
-        <v>158915105</v>
+        <v>122313791</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" s="1">
         <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F94" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>132</v>
@@ -4021,19 +4024,19 @@
         <v>288</v>
       </c>
       <c r="B95" s="1">
-        <v>360588857</v>
+        <v>158915105</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="D95" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F95" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>132</v>
@@ -4050,19 +4053,19 @@
         <v>288</v>
       </c>
       <c r="B96" s="1">
-        <v>28591811</v>
+        <v>360588857</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="D96" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>132</v>
@@ -4076,22 +4079,22 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B97" s="1">
-        <v>54710757</v>
+        <v>28591811</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D97" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F97" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>132</v>
@@ -4108,19 +4111,19 @@
         <v>289</v>
       </c>
       <c r="B98" s="1">
-        <v>58760628</v>
+        <v>54710757</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D98" s="1">
         <v>50</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F98" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>132</v>
@@ -4137,19 +4140,19 @@
         <v>289</v>
       </c>
       <c r="B99" s="1">
-        <v>61290491</v>
+        <v>58760628</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D99" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>132</v>
@@ -4166,19 +4169,19 @@
         <v>289</v>
       </c>
       <c r="B100" s="1">
-        <v>81059250</v>
+        <v>61290491</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="1">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>132</v>
@@ -4192,30 +4195,30 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B101" s="1">
-        <v>155605542</v>
+        <v>81059250</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D101" s="1">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="F101" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="H101" s="1">
         <v>2019</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4224,19 +4227,19 @@
         <v>295</v>
       </c>
       <c r="B102" s="1">
-        <v>202037625</v>
+        <v>155605542</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D102" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="F102" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>208</v>
@@ -4244,8 +4247,8 @@
       <c r="H102" s="1">
         <v>2019</v>
       </c>
-      <c r="I102" s="1">
-        <v>2</v>
+      <c r="I102" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4256,19 @@
         <v>295</v>
       </c>
       <c r="B103" s="1">
-        <v>226651674</v>
+        <v>202037625</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D103" s="1">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F103" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>208</v>
@@ -4282,19 +4285,19 @@
         <v>295</v>
       </c>
       <c r="B104" s="1">
-        <v>252073394</v>
+        <v>226651674</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D104" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F104" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>208</v>
@@ -4308,22 +4311,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B105" s="1">
-        <v>390786397</v>
+        <v>252073394</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D105" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F105" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>208</v>
@@ -4340,19 +4343,19 @@
         <v>294</v>
       </c>
       <c r="B106" s="1">
-        <v>202185585</v>
+        <v>390786397</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F106" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>208</v>
@@ -4369,19 +4372,19 @@
         <v>294</v>
       </c>
       <c r="B107" s="1">
-        <v>281594391</v>
+        <v>202185585</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>208</v>
@@ -4398,19 +4401,19 @@
         <v>294</v>
       </c>
       <c r="B108" s="1">
-        <v>329966310</v>
+        <v>281594391</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F108" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>208</v>
@@ -4419,27 +4422,27 @@
         <v>2019</v>
       </c>
       <c r="I108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B109" s="1">
-        <v>315999821</v>
+        <v>329966310</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>208</v>
@@ -4456,19 +4459,19 @@
         <v>293</v>
       </c>
       <c r="B110" s="1">
-        <v>205202760</v>
+        <v>315999821</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>208</v>
@@ -4485,19 +4488,19 @@
         <v>293</v>
       </c>
       <c r="B111" s="1">
-        <v>242748152</v>
+        <v>205202760</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="1">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="F111" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>208</v>
@@ -4514,19 +4517,19 @@
         <v>293</v>
       </c>
       <c r="B112" s="1">
-        <v>251037482</v>
+        <v>242748152</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D112" s="1">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="F112" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>208</v>
@@ -4540,22 +4543,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B113" s="1">
-        <v>283636310</v>
+        <v>251037482</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D113" s="1">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>208</v>
@@ -4572,19 +4575,19 @@
         <v>292</v>
       </c>
       <c r="B114" s="1">
-        <v>203068045</v>
+        <v>283636310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D114" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>208</v>
@@ -4601,19 +4604,19 @@
         <v>292</v>
       </c>
       <c r="B115" s="1">
-        <v>219045838</v>
+        <v>203068045</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D115" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="F115" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>208</v>
@@ -4630,19 +4633,19 @@
         <v>292</v>
       </c>
       <c r="B116" s="1">
-        <v>257689351</v>
+        <v>219045838</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" s="1">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>208</v>
@@ -4659,10 +4662,10 @@
         <v>292</v>
       </c>
       <c r="B117" s="1">
-        <v>536398847</v>
+        <v>257689351</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117" s="1">
         <v>122</v>
@@ -4671,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>208</v>
@@ -4685,22 +4688,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B118" s="1">
-        <v>150545710</v>
+        <v>536398847</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D118" s="1">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>208</v>
@@ -4717,19 +4720,19 @@
         <v>291</v>
       </c>
       <c r="B119" s="1">
-        <v>161987492</v>
+        <v>150545710</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F119" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>208</v>
@@ -4746,19 +4749,19 @@
         <v>291</v>
       </c>
       <c r="B120" s="1">
-        <v>192518908</v>
+        <v>161987492</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D120" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F120" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>208</v>
@@ -4775,19 +4778,19 @@
         <v>291</v>
       </c>
       <c r="B121" s="1">
-        <v>184100507</v>
+        <v>192518908</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D121" s="1">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F121" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>208</v>
@@ -4801,22 +4804,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B122" s="1">
-        <v>204106015</v>
+        <v>184100507</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D122" s="1">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="F122" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>208</v>
@@ -4833,19 +4836,19 @@
         <v>290</v>
       </c>
       <c r="B123" s="1">
-        <v>187934022</v>
+        <v>204106015</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D123" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F123" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>208</v>
@@ -4862,19 +4865,19 @@
         <v>290</v>
       </c>
       <c r="B124" s="1">
-        <v>281092067</v>
+        <v>187934022</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D124" s="1">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>208</v>
@@ -4891,19 +4894,19 @@
         <v>290</v>
       </c>
       <c r="B125" s="1">
-        <v>151446812</v>
+        <v>281092067</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="D125" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>208</v>
@@ -4917,22 +4920,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B126" s="1">
-        <v>165126012</v>
+        <v>151446812</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="D126" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F126" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>208</v>
@@ -4949,19 +4952,19 @@
         <v>288</v>
       </c>
       <c r="B127" s="1">
-        <v>183616667</v>
+        <v>165126012</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D127" s="1">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="F127" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>208</v>
@@ -4978,19 +4981,19 @@
         <v>288</v>
       </c>
       <c r="B128" s="1">
-        <v>173065562</v>
+        <v>183616667</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D128" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="F128" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>208</v>
@@ -5002,24 +5005,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B129" s="1">
-        <v>101919713</v>
+        <v>173065562</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D129" s="1">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F129" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>208</v>
@@ -5031,24 +5034,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B130" s="1">
-        <v>137647317</v>
+        <v>101919713</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D130" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F130" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>208</v>
@@ -5065,19 +5068,19 @@
         <v>289</v>
       </c>
       <c r="B131" s="1">
-        <v>196070313</v>
+        <v>137647317</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D131" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F131" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>208</v>
@@ -5094,19 +5097,19 @@
         <v>289</v>
       </c>
       <c r="B132" s="1">
-        <v>174382383</v>
+        <v>196070313</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D132" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F132" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>208</v>
@@ -5123,19 +5126,19 @@
         <v>289</v>
       </c>
       <c r="B133" s="1">
-        <v>189600467</v>
+        <v>174382383</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D133" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>208</v>
@@ -5149,31 +5152,31 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B134" s="1">
-        <v>16278812</v>
+        <v>189600467</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D134" s="1">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F134" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H134" s="1">
         <v>2019</v>
       </c>
       <c r="I134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5181,19 +5184,19 @@
         <v>295</v>
       </c>
       <c r="B135" s="1">
-        <v>13102188</v>
+        <v>16278812</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D135" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="F135" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>246</v>
@@ -5210,19 +5213,19 @@
         <v>295</v>
       </c>
       <c r="B136" s="1">
-        <v>17551322</v>
+        <v>13102188</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F136" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>246</v>
@@ -5236,22 +5239,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B137" s="1">
-        <v>12039561</v>
+        <v>17551322</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="1">
+        <v>29</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
         <v>31</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="1">
-        <v>30</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>246</v>
@@ -5268,19 +5271,19 @@
         <v>294</v>
       </c>
       <c r="B138" s="1">
-        <v>18274268</v>
+        <v>12039561</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D138" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F138" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>246</v>
@@ -5297,19 +5300,19 @@
         <v>294</v>
       </c>
       <c r="B139" s="1">
-        <v>12149851</v>
+        <v>18274268</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D139" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>246</v>
@@ -5326,19 +5329,19 @@
         <v>294</v>
       </c>
       <c r="B140" s="1">
-        <v>12262599</v>
+        <v>12149851</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D140" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>246</v>
@@ -5352,22 +5355,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B141" s="1">
-        <v>4649580</v>
+        <v>12262599</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D141" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="F141" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>246</v>
@@ -5376,7 +5379,7 @@
         <v>2019</v>
       </c>
       <c r="I141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,19 +5387,19 @@
         <v>293</v>
       </c>
       <c r="B142" s="1">
-        <v>7074798</v>
+        <v>4649580</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D142" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="F142" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>246</v>
@@ -5413,19 +5416,19 @@
         <v>293</v>
       </c>
       <c r="B143" s="1">
-        <v>6436893</v>
+        <v>7074798</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D143" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F143" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>246</v>
@@ -5442,19 +5445,19 @@
         <v>293</v>
       </c>
       <c r="B144" s="1">
-        <v>8930819</v>
+        <v>6436893</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D144" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F144" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>246</v>
@@ -5471,19 +5474,19 @@
         <v>293</v>
       </c>
       <c r="B145" s="1">
-        <v>11464786</v>
+        <v>8930819</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D145" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F145" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>246</v>
@@ -5497,22 +5500,22 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B146" s="1">
-        <v>10883302</v>
+        <v>11464786</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D146" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>246</v>
@@ -5529,19 +5532,19 @@
         <v>292</v>
       </c>
       <c r="B147" s="1">
-        <v>8148211</v>
+        <v>10883302</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D147" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="F147" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>246</v>
@@ -5558,19 +5561,19 @@
         <v>292</v>
       </c>
       <c r="B148" s="1">
-        <v>14188900</v>
+        <v>8148211</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D148" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>246</v>
@@ -5587,19 +5590,19 @@
         <v>292</v>
       </c>
       <c r="B149" s="1">
-        <v>16243713</v>
+        <v>14188900</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D149" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>246</v>
@@ -5613,22 +5616,22 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B150" s="1">
-        <v>33434265</v>
+        <v>16243713</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D150" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F150" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>246</v>
@@ -5645,19 +5648,19 @@
         <v>291</v>
       </c>
       <c r="B151" s="1">
-        <v>5942761</v>
+        <v>33434265</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D151" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="F151" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>246</v>
@@ -5674,19 +5677,19 @@
         <v>291</v>
       </c>
       <c r="B152" s="1">
-        <v>12093170</v>
+        <v>5942761</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D152" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F152" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>246</v>
@@ -5703,19 +5706,19 @@
         <v>291</v>
       </c>
       <c r="B153" s="1">
-        <v>8693707</v>
+        <v>12093170</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D153" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F153" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>246</v>
@@ -5729,22 +5732,22 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B154" s="1">
-        <v>7722525</v>
+        <v>8693707</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D154" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="F154" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>246</v>
@@ -5761,19 +5764,19 @@
         <v>290</v>
       </c>
       <c r="B155" s="1">
-        <v>8778689</v>
+        <v>7722525</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="D155" s="1">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>246</v>
@@ -5790,19 +5793,19 @@
         <v>290</v>
       </c>
       <c r="B156" s="1">
-        <v>12285352</v>
+        <v>8778689</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="D156" s="1">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>246</v>
@@ -5819,19 +5822,19 @@
         <v>290</v>
       </c>
       <c r="B157" s="1">
-        <v>17748954</v>
+        <v>12285352</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D157" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>246</v>
@@ -5848,19 +5851,19 @@
         <v>290</v>
       </c>
       <c r="B158" s="1">
-        <v>11715564</v>
+        <v>17748954</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D158" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F158" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>246</v>
@@ -5874,22 +5877,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B159" s="1">
-        <v>9609928</v>
+        <v>11715564</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="D159" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F159" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>246</v>
@@ -5906,19 +5909,19 @@
         <v>288</v>
       </c>
       <c r="B160" s="1">
-        <v>13838500</v>
+        <v>9609928</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="D160" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F160" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>246</v>
@@ -5935,19 +5938,19 @@
         <v>288</v>
       </c>
       <c r="B161" s="1">
-        <v>16611360</v>
+        <v>13838500</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D161" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F161" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>246</v>
@@ -5964,19 +5967,19 @@
         <v>288</v>
       </c>
       <c r="B162" s="1">
-        <v>13600259</v>
+        <v>16611360</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="D162" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" s="1">
         <v>6</v>
-      </c>
-      <c r="F162" s="1">
-        <v>5</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>246</v>
@@ -5990,22 +5993,22 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B163" s="1">
-        <v>14839396</v>
+        <v>13600259</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="D163" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F163" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>246</v>
@@ -6022,19 +6025,19 @@
         <v>289</v>
       </c>
       <c r="B164" s="1">
-        <v>12520236</v>
+        <v>14839396</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D164" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="F164" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>246</v>
@@ -6051,19 +6054,19 @@
         <v>289</v>
       </c>
       <c r="B165" s="1">
-        <v>13381750</v>
+        <v>12520236</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D165" s="1">
         <v>27</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="F165" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>246</v>
@@ -6080,19 +6083,19 @@
         <v>289</v>
       </c>
       <c r="B166" s="1">
-        <v>20117827</v>
+        <v>13381750</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D166" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F166" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>246</v>
@@ -6106,31 +6109,31 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B167" s="1">
-        <v>857404</v>
+        <v>20117827</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="D167" s="1">
         <v>26</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="F167" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="H167" s="1">
         <v>2019</v>
       </c>
       <c r="I167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -6138,19 +6141,19 @@
         <v>295</v>
       </c>
       <c r="B168" s="1">
-        <v>1643350</v>
+        <v>857404</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D168" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F168" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>207</v>
@@ -6167,10 +6170,10 @@
         <v>295</v>
       </c>
       <c r="B169" s="1">
-        <v>1863611</v>
+        <v>1643350</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D169" s="1">
         <v>25</v>
@@ -6179,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>207</v>
@@ -6193,22 +6196,22 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B170" s="1">
-        <v>1986843</v>
+        <v>1863611</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D170" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F170" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>207</v>
@@ -6225,19 +6228,19 @@
         <v>294</v>
       </c>
       <c r="B171" s="1">
-        <v>2336444</v>
+        <v>1986843</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D171" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F171" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>207</v>
@@ -6254,19 +6257,19 @@
         <v>294</v>
       </c>
       <c r="B172" s="1">
-        <v>912196</v>
+        <v>2336444</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D172" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F172" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>207</v>
@@ -6283,19 +6286,19 @@
         <v>294</v>
       </c>
       <c r="B173" s="1">
-        <v>2063632</v>
+        <v>912196</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D173" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F173" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>207</v>
@@ -6309,22 +6312,22 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B174" s="1">
-        <v>1535966</v>
+        <v>2063632</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D174" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="F174" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>207</v>
@@ -6333,7 +6336,7 @@
         <v>2019</v>
       </c>
       <c r="I174" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,19 +6344,19 @@
         <v>293</v>
       </c>
       <c r="B175" s="1">
-        <v>1101737</v>
+        <v>1535966</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D175" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="F175" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>207</v>
@@ -6370,19 +6373,19 @@
         <v>293</v>
       </c>
       <c r="B176" s="1">
-        <v>899852</v>
+        <v>1101737</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D176" s="1">
         <v>23</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F176" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>207</v>
@@ -6399,19 +6402,19 @@
         <v>293</v>
       </c>
       <c r="B177" s="1">
-        <v>932468</v>
+        <v>899852</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D177" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>207</v>
@@ -6428,19 +6431,19 @@
         <v>293</v>
       </c>
       <c r="B178" s="1">
-        <v>864292</v>
+        <v>932468</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D178" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>207</v>
@@ -6454,22 +6457,22 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B179" s="1">
-        <v>1007599</v>
+        <v>864292</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="D179" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F179" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>207</v>
@@ -6486,19 +6489,19 @@
         <v>292</v>
       </c>
       <c r="B180" s="1">
-        <v>947563</v>
+        <v>1007599</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D180" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>207</v>
@@ -6515,19 +6518,19 @@
         <v>292</v>
       </c>
       <c r="B181" s="1">
-        <v>854335</v>
+        <v>947563</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D181" s="1">
         <v>29</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="F181" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>207</v>
@@ -6544,19 +6547,19 @@
         <v>292</v>
       </c>
       <c r="B182" s="1">
-        <v>1790652</v>
+        <v>854335</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D182" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F182" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>207</v>
@@ -6570,22 +6573,22 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B183" s="1">
-        <v>3034371</v>
+        <v>1790652</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D183" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F183" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>207</v>
@@ -6602,19 +6605,19 @@
         <v>291</v>
       </c>
       <c r="B184" s="1">
-        <v>1234530</v>
+        <v>3034371</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D184" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F184" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>207</v>
@@ -6631,19 +6634,19 @@
         <v>291</v>
       </c>
       <c r="B185" s="1">
-        <v>739133</v>
+        <v>1234530</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D185" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F185" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>207</v>
@@ -6660,19 +6663,19 @@
         <v>291</v>
       </c>
       <c r="B186" s="1">
-        <v>955282</v>
+        <v>739133</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D186" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F186" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>207</v>
@@ -6686,22 +6689,22 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B187" s="1">
-        <v>1058669</v>
+        <v>955282</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D187" s="1">
         <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F187" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>207</v>
@@ -6718,19 +6721,19 @@
         <v>290</v>
       </c>
       <c r="B188" s="1">
-        <v>1184243</v>
+        <v>1058669</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D188" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F188" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>207</v>
@@ -6747,19 +6750,19 @@
         <v>290</v>
       </c>
       <c r="B189" s="1">
-        <v>1086208</v>
+        <v>1184243</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D189" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>207</v>
@@ -6776,19 +6779,19 @@
         <v>290</v>
       </c>
       <c r="B190" s="1">
-        <v>1337198</v>
+        <v>1086208</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D190" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>207</v>
@@ -6805,19 +6808,19 @@
         <v>290</v>
       </c>
       <c r="B191" s="1">
-        <v>875674</v>
+        <v>1337198</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D191" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F191" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>207</v>
@@ -6831,22 +6834,22 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B192" s="1">
-        <v>884029</v>
+        <v>875674</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="D192" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F192" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>207</v>
@@ -6863,19 +6866,19 @@
         <v>288</v>
       </c>
       <c r="B193" s="1">
-        <v>858494</v>
+        <v>884029</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D193" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="F193" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>207</v>
@@ -6892,19 +6895,19 @@
         <v>288</v>
       </c>
       <c r="B194" s="1">
-        <v>773787</v>
+        <v>858494</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D194" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F194" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>207</v>
@@ -6921,19 +6924,19 @@
         <v>288</v>
       </c>
       <c r="B195" s="1">
-        <v>1121894</v>
+        <v>773787</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D195" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F195" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>207</v>
@@ -6947,22 +6950,22 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B196" s="1">
-        <v>912303</v>
+        <v>1121894</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D196" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="F196" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>207</v>
@@ -6979,19 +6982,19 @@
         <v>289</v>
       </c>
       <c r="B197" s="1">
-        <v>774425</v>
+        <v>912303</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D197" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F197" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>207</v>
@@ -7008,19 +7011,19 @@
         <v>289</v>
       </c>
       <c r="B198" s="1">
-        <v>894015</v>
+        <v>774425</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D198" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F198" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>207</v>
@@ -7037,19 +7040,19 @@
         <v>289</v>
       </c>
       <c r="B199" s="1">
-        <v>1307028</v>
+        <v>894015</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="D199" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>207</v>
@@ -7063,31 +7066,31 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B200" s="1">
-        <v>9629896</v>
+        <v>1307028</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="D200" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F200" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="H200" s="1">
         <v>2019</v>
       </c>
       <c r="I200" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7095,19 +7098,19 @@
         <v>295</v>
       </c>
       <c r="B201" s="1">
-        <v>9203116</v>
+        <v>9629896</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D201" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="F201" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>284</v>
@@ -7124,19 +7127,19 @@
         <v>295</v>
       </c>
       <c r="B202" s="1">
-        <v>11634122</v>
+        <v>9203116</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="D202" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F202" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>284</v>
@@ -7150,22 +7153,22 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B203" s="1">
-        <v>12593716</v>
+        <v>11634122</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D203" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F203" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>284</v>
@@ -7182,19 +7185,19 @@
         <v>294</v>
       </c>
       <c r="B204" s="1">
-        <v>21024860</v>
+        <v>12593716</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D204" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F204" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>284</v>
@@ -7211,19 +7214,19 @@
         <v>294</v>
       </c>
       <c r="B205" s="1">
-        <v>14891613</v>
+        <v>21024860</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F205" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>284</v>
@@ -7240,19 +7243,19 @@
         <v>294</v>
       </c>
       <c r="B206" s="1">
-        <v>17818246</v>
+        <v>14891613</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D206" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F206" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>284</v>
@@ -7266,22 +7269,22 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B207" s="1">
-        <v>13309418</v>
+        <v>17818246</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D207" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F207" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>284</v>
@@ -7290,7 +7293,7 @@
         <v>2019</v>
       </c>
       <c r="I207" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7298,10 +7301,10 @@
         <v>293</v>
       </c>
       <c r="B208" s="1">
-        <v>12736325</v>
+        <v>13309418</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D208" s="1">
         <v>34</v>
@@ -7310,7 +7313,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>284</v>
@@ -7327,19 +7330,19 @@
         <v>293</v>
       </c>
       <c r="B209" s="1">
-        <v>8847979</v>
+        <v>12736325</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D209" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F209" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>284</v>
@@ -7356,19 +7359,19 @@
         <v>293</v>
       </c>
       <c r="B210" s="1">
-        <v>11322315</v>
+        <v>8847979</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D210" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F210" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>284</v>
@@ -7385,19 +7388,19 @@
         <v>293</v>
       </c>
       <c r="B211" s="1">
-        <v>12442253</v>
+        <v>11322315</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F211" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>284</v>
@@ -7411,22 +7414,22 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B212" s="1">
-        <v>11647417</v>
+        <v>12442253</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F212" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>284</v>
@@ -7443,19 +7446,19 @@
         <v>292</v>
       </c>
       <c r="B213" s="1">
-        <v>9758113</v>
+        <v>11647417</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D213" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="F213" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>284</v>
@@ -7472,19 +7475,19 @@
         <v>292</v>
       </c>
       <c r="B214" s="1">
-        <v>11405925</v>
+        <v>9758113</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D214" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="F214" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>284</v>
@@ -7501,19 +7504,19 @@
         <v>292</v>
       </c>
       <c r="B215" s="1">
-        <v>12552842</v>
+        <v>11405925</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D215" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F215" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>284</v>
@@ -7527,22 +7530,22 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B216" s="1">
-        <v>27543919</v>
+        <v>12552842</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D216" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F216" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>284</v>
@@ -7559,19 +7562,19 @@
         <v>291</v>
       </c>
       <c r="B217" s="1">
-        <v>8816077</v>
+        <v>27543919</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="D217" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F217" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>284</v>
@@ -7588,19 +7591,19 @@
         <v>291</v>
       </c>
       <c r="B218" s="1">
-        <v>9525395</v>
+        <v>8816077</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="D218" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F218" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>284</v>
@@ -7617,19 +7620,19 @@
         <v>291</v>
       </c>
       <c r="B219" s="1">
-        <v>9414734</v>
+        <v>9525395</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D219" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F219" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>284</v>
@@ -7643,22 +7646,22 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B220" s="1">
-        <v>10209267</v>
+        <v>9414734</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D220" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="F220" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>284</v>
@@ -7675,19 +7678,19 @@
         <v>290</v>
       </c>
       <c r="B221" s="1">
-        <v>7366156</v>
+        <v>10209267</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D221" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F221" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>284</v>
@@ -7704,19 +7707,19 @@
         <v>290</v>
       </c>
       <c r="B222" s="1">
-        <v>8446698</v>
+        <v>7366156</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="D222" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>284</v>
@@ -7733,19 +7736,19 @@
         <v>290</v>
       </c>
       <c r="B223" s="1">
-        <v>13057421</v>
+        <v>8446698</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="D223" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>284</v>
@@ -7762,19 +7765,19 @@
         <v>290</v>
       </c>
       <c r="B224" s="1">
-        <v>6533284</v>
+        <v>13057421</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D224" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F224" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>284</v>
@@ -7788,22 +7791,22 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B225" s="1">
-        <v>6921451</v>
+        <v>6533284</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="D225" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F225" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>284</v>
@@ -7820,10 +7823,10 @@
         <v>288</v>
       </c>
       <c r="B226" s="1">
-        <v>9308123</v>
+        <v>6921451</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="D226" s="1">
         <v>51</v>
@@ -7832,7 +7835,7 @@
         <v>43</v>
       </c>
       <c r="F226" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>284</v>
@@ -7849,19 +7852,19 @@
         <v>288</v>
       </c>
       <c r="B227" s="1">
-        <v>7208491</v>
+        <v>9308123</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D227" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="F227" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>284</v>
@@ -7878,19 +7881,19 @@
         <v>288</v>
       </c>
       <c r="B228" s="1">
-        <v>8541203</v>
+        <v>7208491</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D228" s="1">
         <v>48</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F228" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>284</v>
@@ -7904,22 +7907,22 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B229" s="1">
-        <v>12894530</v>
+        <v>8541203</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D229" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>279</v>
       </c>
       <c r="F229" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>284</v>
@@ -7936,19 +7939,19 @@
         <v>289</v>
       </c>
       <c r="B230" s="1">
-        <v>13488154</v>
+        <v>12894530</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D230" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="F230" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>284</v>
@@ -7965,19 +7968,19 @@
         <v>289</v>
       </c>
       <c r="B231" s="1">
-        <v>14260768</v>
+        <v>13488154</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D231" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F231" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>284</v>
@@ -7994,19 +7997,19 @@
         <v>289</v>
       </c>
       <c r="B232" s="1">
-        <v>19294372</v>
+        <v>14260768</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D232" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="F232" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>284</v>
@@ -8015,6 +8018,35 @@
         <v>2019</v>
       </c>
       <c r="I232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B233" s="1">
+        <v>19294372</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D233" s="1">
+        <v>48</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H233" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I233" s="1">
         <v>1</v>
       </c>
     </row>

--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -920,36 +920,12 @@
     <t>Musical</t>
   </si>
   <si>
-    <t>Terror</t>
-  </si>
-  <si>
-    <t>Ação</t>
-  </si>
-  <si>
-    <t>Biografia</t>
-  </si>
-  <si>
-    <t>Animação</t>
-  </si>
-  <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>Romance</t>
-  </si>
-  <si>
-    <t>Ficcão Cientifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suspense </t>
-  </si>
-  <si>
     <t>Aventura</t>
   </si>
   <si>
-    <t>Comédia</t>
-  </si>
-  <si>
     <t>Aladdin</t>
   </si>
   <si>
@@ -963,6 +939,30 @@
   </si>
   <si>
     <t>Genere</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriller </t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>Science fiction</t>
+  </si>
+  <si>
+    <t>Horror</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -1397,7 +1397,7 @@
         <v>245</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G2" s="5">
         <v>33</v>
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G7" s="5">
         <v>28</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G8" s="5">
         <v>27</v>
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G9" s="5">
         <v>26</v>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G10" s="5">
         <v>25</v>
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>296</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G12" s="5">
         <v>23</v>
@@ -1746,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>296</v>
@@ -1778,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>296</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G15" s="5">
         <v>20</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G18" s="5">
         <v>17</v>
@@ -1941,7 +1941,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G19" s="5">
         <v>16</v>
@@ -1973,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G20" s="5">
         <v>15</v>
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G21" s="5">
         <v>14</v>
@@ -2034,7 +2034,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>296</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G23" s="5">
         <v>12</v>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G24" s="5">
         <v>11</v>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G25" s="5">
         <v>10</v>
@@ -2165,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G26" s="5">
         <v>9</v>
@@ -2197,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G27" s="5">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G28" s="5">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G29" s="5">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G30" s="5">
         <v>5</v>
@@ -2325,7 +2325,7 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G31" s="5">
         <v>4</v>
@@ -2357,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
@@ -2389,7 +2389,7 @@
         <v>49</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>248</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G35" s="5">
         <v>33</v>
@@ -2613,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G40" s="5">
         <v>28</v>
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G41" s="5">
         <v>27</v>
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G42" s="5">
         <v>26</v>
@@ -2709,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G43" s="5">
         <v>25</v>
@@ -2738,7 +2738,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>296</v>
@@ -2770,7 +2770,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>296</v>
@@ -2802,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>296</v>
@@ -2834,7 +2834,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>296</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G48" s="5">
         <v>20</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G50" s="5">
         <v>18</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G51" s="5">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>68</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G52" s="5">
         <v>16</v>
@@ -3026,7 +3026,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>296</v>
@@ -3058,7 +3058,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>296</v>
@@ -3090,7 +3090,7 @@
         <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>296</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G56" s="5">
         <v>12</v>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G57" s="5">
         <v>11</v>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G58" s="5">
         <v>10</v>
@@ -3221,7 +3221,7 @@
         <v>76</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G59" s="5">
         <v>9</v>
@@ -3253,7 +3253,7 @@
         <v>44</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G60" s="5">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         <v>44</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G61" s="5">
         <v>7</v>
@@ -3317,7 +3317,7 @@
         <v>44</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G62" s="5">
         <v>6</v>
@@ -3349,7 +3349,7 @@
         <v>44</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G63" s="5">
         <v>5</v>
@@ -3381,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G64" s="5">
         <v>4</v>
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G65" s="5">
         <v>3</v>
@@ -3445,7 +3445,7 @@
         <v>84</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G66" s="5">
         <v>2</v>
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>87</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G68" s="5">
         <v>33</v>
@@ -3541,7 +3541,7 @@
         <v>87</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G69" s="5">
         <v>33</v>
@@ -3573,7 +3573,7 @@
         <v>87</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G70" s="5">
         <v>32</v>
@@ -3605,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G71" s="5">
         <v>31</v>
@@ -3637,7 +3637,7 @@
         <v>87</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G72" s="5">
         <v>30</v>
@@ -3669,7 +3669,7 @@
         <v>92</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G73" s="5">
         <v>29</v>
@@ -3733,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G75" s="5">
         <v>27</v>
@@ -3797,7 +3797,7 @@
         <v>98</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G77" s="5">
         <v>25</v>
@@ -3829,7 +3829,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G78" s="5">
         <v>24</v>
@@ -3861,7 +3861,7 @@
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G79" s="5">
         <v>23</v>
@@ -3893,7 +3893,7 @@
         <v>103</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G80" s="5">
         <v>22</v>
@@ -3957,7 +3957,7 @@
         <v>106</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G82" s="5">
         <v>20</v>
@@ -3989,7 +3989,7 @@
         <v>106</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G83" s="5">
         <v>19</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G84" s="5">
         <v>18</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G85" s="5">
         <v>17</v>
@@ -4085,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G86" s="5">
         <v>16</v>
@@ -4117,7 +4117,7 @@
         <v>111</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G87" s="5">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         <v>111</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G88" s="5">
         <v>14</v>
@@ -4181,7 +4181,7 @@
         <v>115</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G89" s="5">
         <v>13</v>
@@ -4213,7 +4213,7 @@
         <v>117</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G90" s="5">
         <v>12</v>
@@ -4245,7 +4245,7 @@
         <v>117</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G91" s="5">
         <v>11</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G92" s="5">
         <v>10</v>
@@ -4309,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G93" s="5">
         <v>9</v>
@@ -4341,7 +4341,7 @@
         <v>42</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G94" s="5">
         <v>8</v>
@@ -4373,7 +4373,7 @@
         <v>122</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G95" s="5">
         <v>7</v>
@@ -4405,7 +4405,7 @@
         <v>122</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G96" s="5">
         <v>6</v>
@@ -4437,7 +4437,7 @@
         <v>124</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G97" s="5">
         <v>5</v>
@@ -4469,7 +4469,7 @@
         <v>126</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G98" s="5">
         <v>4</v>
@@ -4501,7 +4501,7 @@
         <v>128</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G99" s="5">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>128</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G100" s="5">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>128</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G101" s="5">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>283</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G102" s="5">
         <v>33</v>
@@ -4629,7 +4629,7 @@
         <v>134</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G103" s="5">
         <v>32</v>
@@ -4661,7 +4661,7 @@
         <v>134</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G104" s="5">
         <v>31</v>
@@ -4757,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G107" s="5">
         <v>28</v>
@@ -4789,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G108" s="5">
         <v>27</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G109" s="5">
         <v>26</v>
@@ -4853,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G110" s="5">
         <v>25</v>
@@ -4885,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G111" s="5">
         <v>24</v>
@@ -4917,7 +4917,7 @@
         <v>145</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G112" s="5">
         <v>23</v>
@@ -4946,7 +4946,7 @@
         <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>296</v>
@@ -4978,7 +4978,7 @@
         <v>119</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>296</v>
@@ -5013,7 +5013,7 @@
         <v>148</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G115" s="5">
         <v>20</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G116" s="5">
         <v>19</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G117" s="5">
         <v>18</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G118" s="5">
         <v>17</v>
@@ -5141,7 +5141,7 @@
         <v>68</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G119" s="5">
         <v>16</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G120" s="5">
         <v>15</v>
@@ -5205,7 +5205,7 @@
         <v>31</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G121" s="5">
         <v>14</v>
@@ -5234,7 +5234,7 @@
         <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>296</v>
@@ -5269,7 +5269,7 @@
         <v>157</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G123" s="5">
         <v>12</v>
@@ -5301,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G124" s="5">
         <v>11</v>
@@ -5333,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G125" s="5">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>160</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G126" s="5">
         <v>9</v>
@@ -5397,7 +5397,7 @@
         <v>160</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G127" s="5">
         <v>8</v>
@@ -5429,7 +5429,7 @@
         <v>42</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G128" s="5">
         <v>7</v>
@@ -5461,7 +5461,7 @@
         <v>164</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G129" s="5">
         <v>6</v>
@@ -5493,7 +5493,7 @@
         <v>166</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G130" s="5">
         <v>5</v>
@@ -5525,7 +5525,7 @@
         <v>166</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G131" s="5">
         <v>4</v>
@@ -5557,7 +5557,7 @@
         <v>166</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G132" s="5">
         <v>3</v>
@@ -5589,7 +5589,7 @@
         <v>170</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G133" s="5">
         <v>2</v>
@@ -5621,7 +5621,7 @@
         <v>172</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G134" s="5">
         <v>1</v>
@@ -5653,7 +5653,7 @@
         <v>211</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G135" s="5">
         <v>33</v>
@@ -5813,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G140" s="5">
         <v>28</v>
@@ -5845,7 +5845,7 @@
         <v>15</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G141" s="5">
         <v>27</v>
@@ -5877,7 +5877,7 @@
         <v>145</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G142" s="5">
         <v>26</v>
@@ -5906,10 +5906,10 @@
         <v>33</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G143" s="5">
         <v>25</v>
@@ -5938,10 +5938,10 @@
         <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G144" s="5">
         <v>24</v>
@@ -5970,10 +5970,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G145" s="5">
         <v>23</v>
@@ -6002,10 +6002,10 @@
         <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G146" s="5">
         <v>22</v>
@@ -6037,7 +6037,7 @@
         <v>148</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G147" s="5">
         <v>21</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G148" s="5">
         <v>20</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G149" s="5">
         <v>19</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G150" s="5">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G151" s="5">
         <v>17</v>
@@ -6194,10 +6194,10 @@
         <v>26</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G152" s="5">
         <v>16</v>
@@ -6226,10 +6226,10 @@
         <v>27</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G153" s="5">
         <v>15</v>
@@ -6261,7 +6261,7 @@
         <v>231</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G154" s="5">
         <v>14</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G155" s="5">
         <v>13</v>
@@ -6325,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G156" s="5">
         <v>12</v>
@@ -6357,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G157" s="5">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G158" s="5">
         <v>10</v>
@@ -6421,7 +6421,7 @@
         <v>76</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G159" s="5">
         <v>9</v>
@@ -6453,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G160" s="5">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>44</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G161" s="5">
         <v>7</v>
@@ -6517,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G162" s="5">
         <v>6</v>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G163" s="5">
         <v>5</v>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G164" s="5">
         <v>4</v>
@@ -6613,7 +6613,7 @@
         <v>166</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G165" s="5">
         <v>3</v>
@@ -6645,7 +6645,7 @@
         <v>241</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G166" s="5">
         <v>2</v>
@@ -6677,7 +6677,7 @@
         <v>241</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G167" s="5">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>296</v>
@@ -6770,7 +6770,7 @@
         <v>25</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>296</v>
@@ -6869,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G173" s="5">
         <v>28</v>
@@ -6901,7 +6901,7 @@
         <v>15</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G174" s="5">
         <v>27</v>
@@ -6933,7 +6933,7 @@
         <v>145</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G175" s="5">
         <v>26</v>
@@ -6965,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G176" s="5">
         <v>25</v>
@@ -6994,7 +6994,7 @@
         <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>296</v>
@@ -7026,7 +7026,7 @@
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>296</v>
@@ -7058,7 +7058,7 @@
         <v>22</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>296</v>
@@ -7090,7 +7090,7 @@
         <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>296</v>
@@ -7125,7 +7125,7 @@
         <v>148</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G181" s="5">
         <v>20</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G182" s="5">
         <v>19</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G183" s="5">
         <v>18</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G184" s="5">
         <v>17</v>
@@ -7253,7 +7253,7 @@
         <v>190</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G185" s="5">
         <v>16</v>
@@ -7285,7 +7285,7 @@
         <v>31</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G186" s="5">
         <v>15</v>
@@ -7317,7 +7317,7 @@
         <v>31</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G187" s="5">
         <v>14</v>
@@ -7349,7 +7349,7 @@
         <v>2</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G188" s="5">
         <v>13</v>
@@ -7380,8 +7380,8 @@
       <c r="E189" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F189" s="5" t="s">
-        <v>298</v>
+      <c r="F189" t="s">
+        <v>304</v>
       </c>
       <c r="G189" s="5">
         <v>12</v>
@@ -7413,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G190" s="5">
         <v>11</v>
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G191" s="5">
         <v>10</v>
@@ -7477,7 +7477,7 @@
         <v>198</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G192" s="5">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>198</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G193" s="5">
         <v>8</v>
@@ -7541,7 +7541,7 @@
         <v>44</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G194" s="5">
         <v>7</v>
@@ -7573,7 +7573,7 @@
         <v>44</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G195" s="5">
         <v>6</v>
@@ -7605,7 +7605,7 @@
         <v>44</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G196" s="5">
         <v>5</v>
@@ -7637,7 +7637,7 @@
         <v>172</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G197" s="5">
         <v>4</v>
@@ -7669,7 +7669,7 @@
         <v>172</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G198" s="5">
         <v>3</v>
@@ -7701,7 +7701,7 @@
         <v>172</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G199" s="5">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>172</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G200" s="5">
         <v>1</v>
@@ -7765,7 +7765,7 @@
         <v>211</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G201" s="5">
         <v>33</v>
@@ -7829,7 +7829,7 @@
         <v>251</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G203" s="5">
         <v>31</v>
@@ -7925,7 +7925,7 @@
         <v>15</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G206" s="5">
         <v>28</v>
@@ -7957,7 +7957,7 @@
         <v>15</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G207" s="5">
         <v>27</v>
@@ -7989,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G208" s="5">
         <v>26</v>
@@ -8021,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G209" s="5">
         <v>25</v>
@@ -8053,7 +8053,7 @@
         <v>100</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G210" s="5">
         <v>24</v>
@@ -8082,7 +8082,7 @@
         <v>50</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>296</v>
@@ -8114,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>296</v>
@@ -8146,7 +8146,7 @@
         <v>43</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>296</v>
@@ -8181,7 +8181,7 @@
         <v>148</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G214" s="5">
         <v>20</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G215" s="5">
         <v>19</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G216" s="5">
         <v>18</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G217" s="5">
         <v>17</v>
@@ -8309,7 +8309,7 @@
         <v>31</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G218" s="5">
         <v>16</v>
@@ -8341,7 +8341,7 @@
         <v>31</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G219" s="5">
         <v>15</v>
@@ -8373,7 +8373,7 @@
         <v>31</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G220" s="5">
         <v>14</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G221" s="5">
         <v>13</v>
@@ -8437,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G222" s="5">
         <v>12</v>
@@ -8469,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G223" s="5">
         <v>11</v>
@@ -8501,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G224" s="5">
         <v>10</v>
@@ -8533,7 +8533,7 @@
         <v>42</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G225" s="5">
         <v>9</v>
@@ -8565,7 +8565,7 @@
         <v>42</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G226" s="5">
         <v>8</v>
@@ -8597,7 +8597,7 @@
         <v>42</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G227" s="5">
         <v>7</v>
@@ -8629,7 +8629,7 @@
         <v>274</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G228" s="5">
         <v>6</v>
@@ -8661,7 +8661,7 @@
         <v>276</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G229" s="5">
         <v>5</v>
@@ -8693,7 +8693,7 @@
         <v>276</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G230" s="5">
         <v>4</v>
@@ -8725,7 +8725,7 @@
         <v>166</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G231" s="5">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         <v>172</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G232" s="5">
         <v>2</v>
@@ -8789,7 +8789,7 @@
         <v>44</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G233" s="5">
         <v>1</v>
@@ -8805,6 +8805,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J233"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -923,9 +923,6 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>Aventura</t>
-  </si>
-  <si>
     <t>Aladdin</t>
   </si>
   <si>
@@ -938,9 +935,6 @@
     <t>After</t>
   </si>
   <si>
-    <t>Genere</t>
-  </si>
-  <si>
     <t>Biography</t>
   </si>
   <si>
@@ -963,6 +957,12 @@
   </si>
   <si>
     <t>Horror</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adventure</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1331,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -1397,7 +1397,7 @@
         <v>245</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G2" s="5">
         <v>33</v>
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G7" s="5">
         <v>28</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G8" s="5">
         <v>27</v>
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G9" s="5">
         <v>26</v>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G10" s="5">
         <v>25</v>
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>296</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G12" s="5">
         <v>23</v>
@@ -1746,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>296</v>
@@ -1778,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>296</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G15" s="5">
         <v>20</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G18" s="5">
         <v>17</v>
@@ -1973,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G20" s="5">
         <v>15</v>
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G21" s="5">
         <v>14</v>
@@ -2034,7 +2034,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>296</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G23" s="5">
         <v>12</v>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G24" s="5">
         <v>11</v>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G25" s="5">
         <v>10</v>
@@ -2165,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G26" s="5">
         <v>9</v>
@@ -2197,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G27" s="5">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G28" s="5">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G29" s="5">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G30" s="5">
         <v>5</v>
@@ -2325,7 +2325,7 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G31" s="5">
         <v>4</v>
@@ -2357,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
@@ -2389,7 +2389,7 @@
         <v>49</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G40" s="5">
         <v>28</v>
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G41" s="5">
         <v>27</v>
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G42" s="5">
         <v>26</v>
@@ -2709,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G43" s="5">
         <v>25</v>
@@ -2738,7 +2738,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>296</v>
@@ -2770,7 +2770,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>296</v>
@@ -2802,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>296</v>
@@ -2834,7 +2834,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>296</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G48" s="5">
         <v>20</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G50" s="5">
         <v>18</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G51" s="5">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>68</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G52" s="5">
         <v>16</v>
@@ -3026,7 +3026,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>296</v>
@@ -3058,7 +3058,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>296</v>
@@ -3090,7 +3090,7 @@
         <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>296</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G56" s="5">
         <v>12</v>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G57" s="5">
         <v>11</v>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G58" s="5">
         <v>10</v>
@@ -3253,7 +3253,7 @@
         <v>44</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G60" s="5">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         <v>44</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G61" s="5">
         <v>7</v>
@@ -3317,7 +3317,7 @@
         <v>44</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G62" s="5">
         <v>6</v>
@@ -3349,7 +3349,7 @@
         <v>44</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G63" s="5">
         <v>5</v>
@@ -3381,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G64" s="5">
         <v>4</v>
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G65" s="5">
         <v>3</v>
@@ -3445,7 +3445,7 @@
         <v>84</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G66" s="5">
         <v>2</v>
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>87</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G68" s="5">
         <v>33</v>
@@ -3541,7 +3541,7 @@
         <v>87</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G69" s="5">
         <v>33</v>
@@ -3573,7 +3573,7 @@
         <v>87</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G70" s="5">
         <v>32</v>
@@ -3605,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G71" s="5">
         <v>31</v>
@@ -3637,7 +3637,7 @@
         <v>87</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G72" s="5">
         <v>30</v>
@@ -3797,7 +3797,7 @@
         <v>98</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G77" s="5">
         <v>25</v>
@@ -3829,7 +3829,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G78" s="5">
         <v>24</v>
@@ -3861,7 +3861,7 @@
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G79" s="5">
         <v>23</v>
@@ -3893,7 +3893,7 @@
         <v>103</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G80" s="5">
         <v>22</v>
@@ -3957,7 +3957,7 @@
         <v>106</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G82" s="5">
         <v>20</v>
@@ -3989,7 +3989,7 @@
         <v>106</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G83" s="5">
         <v>19</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G84" s="5">
         <v>18</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G85" s="5">
         <v>17</v>
@@ -4085,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G86" s="5">
         <v>16</v>
@@ -4117,7 +4117,7 @@
         <v>111</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G87" s="5">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         <v>111</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G88" s="5">
         <v>14</v>
@@ -4309,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G93" s="5">
         <v>9</v>
@@ -4341,7 +4341,7 @@
         <v>42</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G94" s="5">
         <v>8</v>
@@ -4373,7 +4373,7 @@
         <v>122</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G95" s="5">
         <v>7</v>
@@ -4405,7 +4405,7 @@
         <v>122</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G96" s="5">
         <v>6</v>
@@ -4437,7 +4437,7 @@
         <v>124</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G97" s="5">
         <v>5</v>
@@ -4469,7 +4469,7 @@
         <v>126</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G98" s="5">
         <v>4</v>
@@ -4501,7 +4501,7 @@
         <v>128</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G99" s="5">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>128</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G100" s="5">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>128</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G101" s="5">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>283</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G102" s="5">
         <v>33</v>
@@ -4629,7 +4629,7 @@
         <v>134</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G103" s="5">
         <v>32</v>
@@ -4661,7 +4661,7 @@
         <v>134</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G104" s="5">
         <v>31</v>
@@ -4757,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G107" s="5">
         <v>28</v>
@@ -4789,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G108" s="5">
         <v>27</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G109" s="5">
         <v>26</v>
@@ -4853,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G110" s="5">
         <v>25</v>
@@ -4885,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G111" s="5">
         <v>24</v>
@@ -4917,7 +4917,7 @@
         <v>145</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G112" s="5">
         <v>23</v>
@@ -4946,7 +4946,7 @@
         <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>296</v>
@@ -4978,7 +4978,7 @@
         <v>119</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>296</v>
@@ -5013,7 +5013,7 @@
         <v>148</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G115" s="5">
         <v>20</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G116" s="5">
         <v>19</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G117" s="5">
         <v>18</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G118" s="5">
         <v>17</v>
@@ -5141,7 +5141,7 @@
         <v>68</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G119" s="5">
         <v>16</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G120" s="5">
         <v>15</v>
@@ -5205,7 +5205,7 @@
         <v>31</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G121" s="5">
         <v>14</v>
@@ -5234,7 +5234,7 @@
         <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>296</v>
@@ -5269,7 +5269,7 @@
         <v>157</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G123" s="5">
         <v>12</v>
@@ -5301,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G124" s="5">
         <v>11</v>
@@ -5333,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G125" s="5">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>160</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G126" s="5">
         <v>9</v>
@@ -5397,7 +5397,7 @@
         <v>160</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G127" s="5">
         <v>8</v>
@@ -5429,7 +5429,7 @@
         <v>42</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G128" s="5">
         <v>7</v>
@@ -5461,7 +5461,7 @@
         <v>164</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G129" s="5">
         <v>6</v>
@@ -5493,7 +5493,7 @@
         <v>166</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G130" s="5">
         <v>5</v>
@@ -5525,7 +5525,7 @@
         <v>166</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G131" s="5">
         <v>4</v>
@@ -5557,7 +5557,7 @@
         <v>166</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G132" s="5">
         <v>3</v>
@@ -5621,7 +5621,7 @@
         <v>172</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G134" s="5">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G140" s="5">
         <v>28</v>
@@ -5845,7 +5845,7 @@
         <v>15</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G141" s="5">
         <v>27</v>
@@ -5877,7 +5877,7 @@
         <v>145</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G142" s="5">
         <v>26</v>
@@ -5906,10 +5906,10 @@
         <v>33</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G143" s="5">
         <v>25</v>
@@ -5938,10 +5938,10 @@
         <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G144" s="5">
         <v>24</v>
@@ -5970,10 +5970,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G145" s="5">
         <v>23</v>
@@ -6002,10 +6002,10 @@
         <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G146" s="5">
         <v>22</v>
@@ -6037,7 +6037,7 @@
         <v>148</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G147" s="5">
         <v>21</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G148" s="5">
         <v>20</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G149" s="5">
         <v>19</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G150" s="5">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G151" s="5">
         <v>17</v>
@@ -6194,10 +6194,10 @@
         <v>26</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G152" s="5">
         <v>16</v>
@@ -6226,10 +6226,10 @@
         <v>27</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G153" s="5">
         <v>15</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G155" s="5">
         <v>13</v>
@@ -6325,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G156" s="5">
         <v>12</v>
@@ -6357,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G157" s="5">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G158" s="5">
         <v>10</v>
@@ -6453,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" s="5">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>44</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G161" s="5">
         <v>7</v>
@@ -6517,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G162" s="5">
         <v>6</v>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G163" s="5">
         <v>5</v>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G164" s="5">
         <v>4</v>
@@ -6613,7 +6613,7 @@
         <v>166</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G165" s="5">
         <v>3</v>
@@ -6706,7 +6706,7 @@
         <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>296</v>
@@ -6770,7 +6770,7 @@
         <v>25</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>296</v>
@@ -6869,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G173" s="5">
         <v>28</v>
@@ -6901,7 +6901,7 @@
         <v>15</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G174" s="5">
         <v>27</v>
@@ -6933,7 +6933,7 @@
         <v>145</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G175" s="5">
         <v>26</v>
@@ -6965,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G176" s="5">
         <v>25</v>
@@ -6994,7 +6994,7 @@
         <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>296</v>
@@ -7026,7 +7026,7 @@
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>296</v>
@@ -7058,7 +7058,7 @@
         <v>22</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>296</v>
@@ -7090,7 +7090,7 @@
         <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>296</v>
@@ -7125,7 +7125,7 @@
         <v>148</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G181" s="5">
         <v>20</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G182" s="5">
         <v>19</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G183" s="5">
         <v>18</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G184" s="5">
         <v>17</v>
@@ -7253,7 +7253,7 @@
         <v>190</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G185" s="5">
         <v>16</v>
@@ -7285,7 +7285,7 @@
         <v>31</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G186" s="5">
         <v>15</v>
@@ -7317,7 +7317,7 @@
         <v>31</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G187" s="5">
         <v>14</v>
@@ -7349,7 +7349,7 @@
         <v>2</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G188" s="5">
         <v>13</v>
@@ -7381,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G189" s="5">
         <v>12</v>
@@ -7413,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G190" s="5">
         <v>11</v>
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G191" s="5">
         <v>10</v>
@@ -7477,7 +7477,7 @@
         <v>198</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G192" s="5">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>198</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G193" s="5">
         <v>8</v>
@@ -7541,7 +7541,7 @@
         <v>44</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G194" s="5">
         <v>7</v>
@@ -7573,7 +7573,7 @@
         <v>44</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G195" s="5">
         <v>6</v>
@@ -7605,7 +7605,7 @@
         <v>44</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G196" s="5">
         <v>5</v>
@@ -7637,7 +7637,7 @@
         <v>172</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G197" s="5">
         <v>4</v>
@@ -7669,7 +7669,7 @@
         <v>172</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G198" s="5">
         <v>3</v>
@@ -7701,7 +7701,7 @@
         <v>172</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G199" s="5">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>172</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G200" s="5">
         <v>1</v>
@@ -7829,7 +7829,7 @@
         <v>251</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G203" s="5">
         <v>31</v>
@@ -7925,7 +7925,7 @@
         <v>15</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G206" s="5">
         <v>28</v>
@@ -7957,7 +7957,7 @@
         <v>15</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G207" s="5">
         <v>27</v>
@@ -7989,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G208" s="5">
         <v>26</v>
@@ -8021,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G209" s="5">
         <v>25</v>
@@ -8053,7 +8053,7 @@
         <v>100</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G210" s="5">
         <v>24</v>
@@ -8082,7 +8082,7 @@
         <v>50</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>296</v>
@@ -8114,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>296</v>
@@ -8146,7 +8146,7 @@
         <v>43</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>296</v>
@@ -8181,7 +8181,7 @@
         <v>148</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G214" s="5">
         <v>20</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G215" s="5">
         <v>19</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G216" s="5">
         <v>18</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G217" s="5">
         <v>17</v>
@@ -8309,7 +8309,7 @@
         <v>31</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G218" s="5">
         <v>16</v>
@@ -8341,7 +8341,7 @@
         <v>31</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G219" s="5">
         <v>15</v>
@@ -8373,7 +8373,7 @@
         <v>31</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G220" s="5">
         <v>14</v>
@@ -8405,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G221" s="5">
         <v>13</v>
@@ -8437,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G222" s="5">
         <v>12</v>
@@ -8469,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G223" s="5">
         <v>11</v>
@@ -8501,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G224" s="5">
         <v>10</v>
@@ -8533,7 +8533,7 @@
         <v>42</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G225" s="5">
         <v>9</v>
@@ -8565,7 +8565,7 @@
         <v>42</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G226" s="5">
         <v>8</v>
@@ -8597,7 +8597,7 @@
         <v>42</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G227" s="5">
         <v>7</v>
@@ -8725,7 +8725,7 @@
         <v>166</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G231" s="5">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         <v>172</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G232" s="5">
         <v>2</v>
@@ -8789,7 +8789,7 @@
         <v>44</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G233" s="5">
         <v>1</v>

--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="311">
   <si>
     <t>Avengers: Endgame</t>
-  </si>
-  <si>
-    <t>The Lion King (2019)</t>
   </si>
   <si>
     <t>Captain Marvel</t>
@@ -1330,8 +1327,8 @@
   <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,60 +1347,60 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1">
         <v>9509736</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1">
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="5">
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="1">
         <v>2019</v>
@@ -1414,28 +1411,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1">
         <v>6869431</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="5">
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I3" s="1">
         <v>2019</v>
@@ -1446,28 +1443,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="1">
         <v>11438921</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="5">
         <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" s="1">
         <v>2019</v>
@@ -1478,28 +1475,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1">
         <v>16649633</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" s="5">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1">
         <v>2019</v>
@@ -1510,28 +1507,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1">
         <v>23334130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="5">
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="1">
         <v>2019</v>
@@ -1542,28 +1539,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1">
         <v>10298007</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G7" s="5">
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I7" s="1">
         <v>2019</v>
@@ -1574,28 +1571,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1">
         <v>14536635</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G8" s="5">
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="1">
         <v>2019</v>
@@ -1606,28 +1603,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="1">
         <v>9989039</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G9" s="5">
         <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" s="1">
         <v>2019</v>
@@ -1638,28 +1635,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="1">
         <v>14204008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G10" s="5">
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I10" s="1">
         <v>2019</v>
@@ -1670,28 +1667,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1">
         <v>6482381</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G11" s="5">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I11" s="1">
         <v>2019</v>
@@ -1702,28 +1699,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1">
         <v>7963748</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12" s="5">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" s="1">
         <v>2019</v>
@@ -1734,28 +1731,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="1">
         <v>8340715</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G13" s="5">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" s="1">
         <v>2019</v>
@@ -1766,28 +1763,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="1">
         <v>9030134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" s="5">
         <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="1">
         <v>2019</v>
@@ -1798,13 +1795,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="1">
         <v>8880163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>25</v>
@@ -1813,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="5">
         <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="1">
         <v>2019</v>
@@ -1830,13 +1827,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="1">
         <v>11836400</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>21</v>
@@ -1845,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I16" s="1">
         <v>2019</v>
@@ -1862,13 +1859,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="1">
         <v>17057527</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>26</v>
@@ -1877,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I17" s="1">
         <v>2019</v>
@@ -1894,13 +1891,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="1">
         <v>28046462</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>23</v>
@@ -1909,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G18" s="5">
         <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I18" s="1">
         <v>2019</v>
@@ -1926,28 +1923,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B19" s="1">
         <v>7157258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" s="5">
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I19" s="1">
         <v>2019</v>
@@ -1958,28 +1955,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" s="1">
         <v>8071788</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G20" s="5">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I20" s="1">
         <v>2019</v>
@@ -1990,28 +1987,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1">
         <v>9470189</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G21" s="5">
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I21" s="1">
         <v>2019</v>
@@ -2022,28 +2019,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="1">
         <v>7234271</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" s="5">
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I22" s="1">
         <v>2019</v>
@@ -2054,28 +2051,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" s="1">
         <v>7523834</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G23" s="5">
         <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I23" s="1">
         <v>2019</v>
@@ -2086,28 +2083,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" s="1">
         <v>9858066</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G24" s="5">
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" s="1">
         <v>2019</v>
@@ -2118,28 +2115,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="1">
         <v>15165807</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
         <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G25" s="5">
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I25" s="1">
         <v>2019</v>
@@ -2150,28 +2147,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" s="1">
         <v>5058706</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G26" s="5">
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="1">
         <v>2019</v>
@@ -2182,28 +2179,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="1">
         <v>4276685</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" s="5">
         <v>8</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" s="1">
         <v>2019</v>
@@ -2214,28 +2211,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="1">
         <v>5289915</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1">
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G28" s="5">
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I28" s="1">
         <v>2019</v>
@@ -2246,28 +2243,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1">
         <v>5235004</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G29" s="5">
         <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I29" s="1">
         <v>2019</v>
@@ -2278,28 +2275,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="1">
         <v>6784750</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1">
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G30" s="5">
         <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I30" s="1">
         <v>2019</v>
@@ -2310,28 +2307,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" s="1">
         <v>8485530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1">
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="5">
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I31" s="1">
         <v>2019</v>
@@ -2342,28 +2339,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="1">
         <v>11135091</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I32" s="1">
         <v>2019</v>
@@ -2374,28 +2371,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" s="1">
         <v>11933676</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1">
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I33" s="1">
         <v>2019</v>
@@ -2406,28 +2403,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="1">
         <v>14987241</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I34" s="1">
         <v>2019</v>
@@ -2438,28 +2435,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="1">
         <v>2293366</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="1">
         <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G35" s="5">
         <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="1">
         <v>2019</v>
@@ -2470,28 +2467,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="1">
         <v>1837807</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1">
         <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G36" s="5">
         <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I36" s="1">
         <v>2019</v>
@@ -2502,28 +2499,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="1">
         <v>4532871</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G37" s="5">
         <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1">
         <v>2019</v>
@@ -2534,28 +2531,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1">
         <v>5377667</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" s="5">
         <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="1">
         <v>2019</v>
@@ -2566,28 +2563,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1">
         <v>5870002</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G39" s="5">
         <v>29</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I39" s="1">
         <v>2019</v>
@@ -2598,28 +2595,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="1">
         <v>4483325</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1">
         <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G40" s="5">
         <v>28</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I40" s="1">
         <v>2019</v>
@@ -2630,28 +2627,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="1">
         <v>5715413</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1">
         <v>32</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G41" s="5">
         <v>27</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I41" s="1">
         <v>2019</v>
@@ -2662,28 +2659,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="1">
         <v>6583320</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1">
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G42" s="5">
         <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1">
         <v>2019</v>
@@ -2694,28 +2691,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" s="1">
         <v>8437172</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1">
         <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G43" s="5">
         <v>25</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I43" s="1">
         <v>2019</v>
@@ -2726,28 +2723,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" s="1">
         <v>1628135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1">
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G44" s="5">
         <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1">
         <v>2019</v>
@@ -2758,28 +2755,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="1">
         <v>2185391</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G45" s="5">
         <v>23</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1">
         <v>2019</v>
@@ -2790,28 +2787,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B46" s="1">
         <v>2233064</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1">
         <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G46" s="5">
         <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I46" s="1">
         <v>2019</v>
@@ -2822,28 +2819,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="1">
         <v>2563127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1">
         <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G47" s="5">
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1">
         <v>2019</v>
@@ -2854,13 +2851,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" s="1">
         <v>2006435</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1">
         <v>36</v>
@@ -2869,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G48" s="5">
         <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1">
         <v>2019</v>
@@ -2886,13 +2883,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="1">
         <v>2681076</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1">
         <v>58</v>
@@ -2901,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I49" s="1">
         <v>2019</v>
@@ -2918,13 +2915,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="1">
         <v>3957886</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1">
         <v>44</v>
@@ -2933,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G50" s="5">
         <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1">
         <v>2019</v>
@@ -2950,13 +2947,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B51" s="1">
         <v>7446753</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1">
         <v>48</v>
@@ -2965,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G51" s="5">
         <v>17</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51" s="1">
         <v>2019</v>
@@ -2982,28 +2979,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B52" s="1">
         <v>2229763</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G52" s="5">
         <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" s="1">
         <v>2019</v>
@@ -3014,28 +3011,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="1">
         <v>1723093</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1">
         <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G53" s="5">
         <v>15</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I53" s="1">
         <v>2019</v>
@@ -3046,28 +3043,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" s="1">
         <v>2141240</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1">
         <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G54" s="5">
         <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" s="1">
         <v>2019</v>
@@ -3078,28 +3075,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" s="1">
         <v>1787785</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
         <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="5">
         <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" s="1">
         <v>2019</v>
@@ -3110,28 +3107,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" s="1">
         <v>1259519</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1">
         <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G56" s="5">
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I56" s="1">
         <v>2019</v>
@@ -3142,28 +3139,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="1">
         <v>1770715</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1">
         <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G57" s="5">
         <v>11</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I57" s="1">
         <v>2019</v>
@@ -3174,28 +3171,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58" s="1">
         <v>2599664</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1">
         <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G58" s="5">
         <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1">
         <v>2019</v>
@@ -3206,28 +3203,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="1">
         <v>1284148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1">
         <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G59" s="5">
         <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1">
         <v>2019</v>
@@ -3238,28 +3235,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="1">
         <v>1579189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1">
         <v>56</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G60" s="5">
         <v>8</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I60" s="1">
         <v>2019</v>
@@ -3270,28 +3267,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="1">
         <v>1520445</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1">
         <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G61" s="5">
         <v>7</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I61" s="1">
         <v>2019</v>
@@ -3302,28 +3299,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="1">
         <v>1599984</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1">
         <v>41</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G62" s="5">
         <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I62" s="1">
         <v>2019</v>
@@ -3334,28 +3331,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="1">
         <v>2175999</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1">
         <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G63" s="5">
         <v>5</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I63" s="1">
         <v>2019</v>
@@ -3366,28 +3363,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" s="1">
         <v>2262335</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1">
         <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64" s="5">
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1">
         <v>2019</v>
@@ -3398,28 +3395,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B65" s="1">
         <v>2492936</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1">
         <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G65" s="5">
         <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I65" s="1">
         <v>2019</v>
@@ -3430,28 +3427,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B66" s="1">
         <v>3979678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="1">
         <v>44</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G66" s="5">
         <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I66" s="1">
         <v>2019</v>
@@ -3462,28 +3459,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" s="1">
         <v>2772770</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="1">
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I67" s="1">
         <v>2019</v>
@@ -3494,28 +3491,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B68" s="1">
         <v>106453172</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="1">
         <v>31</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G68" s="5">
         <v>33</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I68" s="1">
         <v>2019</v>
@@ -3526,28 +3523,28 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B69" s="1">
         <v>106453172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="1">
         <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G69" s="5">
         <v>33</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I69" s="1">
         <v>2019</v>
@@ -3558,28 +3555,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B70" s="1">
         <v>143151723</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1">
         <v>43</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G70" s="5">
         <v>32</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I70" s="1">
         <v>2019</v>
@@ -3590,28 +3587,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B71" s="1">
         <v>201006987</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="1">
         <v>38</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G71" s="5">
         <v>31</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I71" s="1">
         <v>2019</v>
@@ -3622,28 +3619,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B72" s="1">
         <v>138934133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1">
         <v>40</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G72" s="5">
         <v>30</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I72" s="1">
         <v>2019</v>
@@ -3654,28 +3651,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1">
         <v>93605223</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D73" s="1">
         <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G73" s="5">
         <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I73" s="1">
         <v>2019</v>
@@ -3686,28 +3683,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B74" s="1">
         <v>113727604</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="1">
         <v>37</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G74" s="5">
         <v>28</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I74" s="1">
         <v>2019</v>
@@ -3718,28 +3715,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1">
         <v>110427962</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" s="1">
         <v>37</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G75" s="5">
         <v>27</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I75" s="1">
         <v>2019</v>
@@ -3750,28 +3747,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B76" s="1">
         <v>119400885</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="1">
         <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G76" s="5">
         <v>26</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I76" s="1">
         <v>2019</v>
@@ -3782,28 +3779,28 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B77" s="1">
         <v>61234797</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1">
         <v>39</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G77" s="5">
         <v>25</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I77" s="1">
         <v>2019</v>
@@ -3814,28 +3811,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B78" s="1">
         <v>57588767</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D78" s="1">
         <v>44</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G78" s="5">
         <v>24</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I78" s="1">
         <v>2019</v>
@@ -3846,28 +3843,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" s="1">
         <v>111009116</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1">
         <v>30</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G79" s="5">
         <v>23</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I79" s="1">
         <v>2019</v>
@@ -3878,28 +3875,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="1">
         <v>101546401</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="1">
         <v>36</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G80" s="5">
         <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I80" s="1">
         <v>2019</v>
@@ -3910,28 +3907,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" s="1">
         <v>44032296</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1">
         <v>42</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G81" s="5">
         <v>21</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I81" s="1">
         <v>2019</v>
@@ -3942,28 +3939,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1">
         <v>47085460</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="1">
         <v>38</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G82" s="5">
         <v>20</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I82" s="1">
         <v>2019</v>
@@ -3974,28 +3971,28 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="1">
         <v>73944361</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D83" s="1">
         <v>33</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G83" s="5">
         <v>19</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I83" s="1">
         <v>2019</v>
@@ -4006,13 +4003,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84" s="1">
         <v>85886422</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" s="1">
         <v>30</v>
@@ -4021,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G84" s="5">
         <v>18</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I84" s="1">
         <v>2019</v>
@@ -4038,13 +4035,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B85" s="1">
         <v>180274283</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="1">
         <v>43</v>
@@ -4053,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G85" s="5">
         <v>17</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I85" s="1">
         <v>2019</v>
@@ -4070,28 +4067,28 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B86" s="1">
         <v>35631351</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="1">
         <v>47</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G86" s="5">
         <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I86" s="1">
         <v>2019</v>
@@ -4102,28 +4099,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B87" s="1">
         <v>45892431</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="1">
         <v>42</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G87" s="5">
         <v>15</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I87" s="1">
         <v>2019</v>
@@ -4134,28 +4131,28 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88" s="1">
         <v>101042175</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" s="1">
         <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G88" s="5">
         <v>14</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I88" s="1">
         <v>2019</v>
@@ -4166,28 +4163,28 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="1">
         <v>50816390</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="1">
         <v>43</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G89" s="5">
         <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I89" s="1">
         <v>2019</v>
@@ -4198,28 +4195,28 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" s="1">
         <v>67987140</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D90" s="1">
         <v>39</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="5">
         <v>12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I90" s="1">
         <v>2019</v>
@@ -4230,28 +4227,28 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1">
         <v>93567943</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="1">
         <v>41</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G91" s="5">
         <v>11</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I91" s="1">
         <v>2019</v>
@@ -4262,28 +4259,28 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B92" s="1">
         <v>131667763</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" s="1">
         <v>33</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G92" s="5">
         <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I92" s="1">
         <v>2019</v>
@@ -4294,28 +4291,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" s="1">
         <v>92979065</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="1">
         <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G93" s="5">
         <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I93" s="1">
         <v>2019</v>
@@ -4326,28 +4323,28 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B94" s="1">
         <v>122313791</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D94" s="1">
         <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G94" s="5">
         <v>8</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I94" s="1">
         <v>2019</v>
@@ -4358,28 +4355,28 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="1">
         <v>158915105</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95" s="1">
         <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G95" s="5">
         <v>7</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I95" s="1">
         <v>2019</v>
@@ -4390,28 +4387,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B96" s="1">
         <v>360588857</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D96" s="1">
         <v>23</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G96" s="5">
         <v>6</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I96" s="1">
         <v>2019</v>
@@ -4422,28 +4419,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" s="1">
         <v>28591811</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97" s="1">
         <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G97" s="5">
         <v>5</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I97" s="1">
         <v>2019</v>
@@ -4454,28 +4451,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B98" s="1">
         <v>54710757</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D98" s="1">
         <v>50</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G98" s="5">
         <v>4</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I98" s="1">
         <v>2019</v>
@@ -4486,28 +4483,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B99" s="1">
         <v>58760628</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="1">
         <v>50</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G99" s="5">
         <v>3</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I99" s="1">
         <v>2019</v>
@@ -4518,28 +4515,28 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B100" s="1">
         <v>61290491</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="1">
         <v>54</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G100" s="5">
         <v>2</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I100" s="1">
         <v>2019</v>
@@ -4550,28 +4547,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B101" s="1">
         <v>81059250</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="1">
         <v>43</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G101" s="5">
         <v>1</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I101" s="1">
         <v>2019</v>
@@ -4582,28 +4579,28 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B102" s="1">
         <v>155605542</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D102" s="1">
         <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G102" s="5">
         <v>33</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I102" s="1">
         <v>2019</v>
@@ -4614,28 +4611,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B103" s="1">
         <v>202037625</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="1">
         <v>97</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G103" s="5">
         <v>32</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I103" s="1">
         <v>2019</v>
@@ -4646,28 +4643,28 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B104" s="1">
         <v>226651674</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D104" s="1">
         <v>110</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G104" s="5">
         <v>31</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I104" s="1">
         <v>2019</v>
@@ -4678,28 +4675,28 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B105" s="1">
         <v>252073394</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="1">
         <v>106</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G105" s="5">
         <v>30</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I105" s="1">
         <v>2019</v>
@@ -4710,28 +4707,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B106" s="1">
         <v>390786397</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="1">
         <v>108</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G106" s="5">
         <v>29</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I106" s="1">
         <v>2019</v>
@@ -4742,28 +4739,28 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B107" s="1">
         <v>202185585</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="1">
         <v>113</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G107" s="5">
         <v>28</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" s="1">
         <v>2019</v>
@@ -4774,28 +4771,28 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B108" s="1">
         <v>281594391</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="1">
         <v>107</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G108" s="5">
         <v>27</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" s="1">
         <v>2019</v>
@@ -4806,28 +4803,28 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B109" s="1">
         <v>329966310</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" s="1">
         <v>103</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G109" s="5">
         <v>26</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I109" s="1">
         <v>2019</v>
@@ -4838,28 +4835,28 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B110" s="1">
         <v>315999821</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" s="1">
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G110" s="5">
         <v>25</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I110" s="1">
         <v>2019</v>
@@ -4870,28 +4867,28 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B111" s="1">
         <v>205202760</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G111" s="5">
         <v>24</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I111" s="1">
         <v>2019</v>
@@ -4902,28 +4899,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B112" s="1">
         <v>242748152</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D112" s="1">
         <v>121</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G112" s="5">
         <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I112" s="1">
         <v>2019</v>
@@ -4934,28 +4931,28 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113" s="1">
         <v>251037482</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="1">
         <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G113" s="5">
         <v>22</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I113" s="1">
         <v>2019</v>
@@ -4966,28 +4963,28 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B114" s="1">
         <v>283636310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="1">
         <v>119</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G114" s="5">
         <v>21</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I114" s="1">
         <v>2019</v>
@@ -4998,28 +4995,28 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B115" s="1">
         <v>203068045</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" s="1">
         <v>116</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G115" s="5">
         <v>20</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I115" s="1">
         <v>2019</v>
@@ -5030,13 +5027,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B116" s="1">
         <v>219045838</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D116" s="1">
         <v>112</v>
@@ -5045,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G116" s="5">
         <v>19</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I116" s="1">
         <v>2019</v>
@@ -5062,13 +5059,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B117" s="1">
         <v>257689351</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D117" s="1">
         <v>122</v>
@@ -5077,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G117" s="5">
         <v>18</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I117" s="1">
         <v>2019</v>
@@ -5094,13 +5091,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118" s="1">
         <v>536398847</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D118" s="1">
         <v>122</v>
@@ -5109,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G118" s="5">
         <v>17</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I118" s="1">
         <v>2019</v>
@@ -5126,28 +5123,28 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B119" s="1">
         <v>150545710</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D119" s="1">
         <v>137</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G119" s="5">
         <v>16</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I119" s="1">
         <v>2019</v>
@@ -5158,28 +5155,28 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B120" s="1">
         <v>161987492</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1">
         <v>130</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G120" s="5">
         <v>15</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I120" s="1">
         <v>2019</v>
@@ -5190,28 +5187,28 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B121" s="1">
         <v>192518908</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D121" s="1">
         <v>125</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G121" s="5">
         <v>14</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I121" s="1">
         <v>2019</v>
@@ -5222,28 +5219,28 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B122" s="1">
         <v>184100507</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" s="1">
         <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G122" s="5">
         <v>13</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I122" s="1">
         <v>2019</v>
@@ -5254,28 +5251,28 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B123" s="1">
         <v>204106015</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D123" s="1">
         <v>125</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G123" s="5">
         <v>12</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I123" s="1">
         <v>2019</v>
@@ -5286,28 +5283,28 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B124" s="1">
         <v>187934022</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="1">
         <v>126</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G124" s="5">
         <v>11</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I124" s="1">
         <v>2019</v>
@@ -5318,28 +5315,28 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B125" s="1">
         <v>281092067</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" s="1">
         <v>115</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G125" s="5">
         <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I125" s="1">
         <v>2019</v>
@@ -5350,28 +5347,28 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1">
         <v>151446812</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D126" s="1">
         <v>108</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G126" s="5">
         <v>9</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I126" s="1">
         <v>2019</v>
@@ -5382,28 +5379,28 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="1">
         <v>165126012</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D127" s="1">
         <v>96</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G127" s="5">
         <v>8</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I127" s="1">
         <v>2019</v>
@@ -5414,28 +5411,28 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B128" s="1">
         <v>183616667</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D128" s="1">
         <v>104</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G128" s="5">
         <v>7</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I128" s="1">
         <v>2019</v>
@@ -5446,28 +5443,28 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B129" s="1">
         <v>173065562</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D129" s="1">
         <v>103</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G129" s="5">
         <v>6</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I129" s="1">
         <v>2019</v>
@@ -5478,28 +5475,28 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" s="1">
         <v>101919713</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D130" s="1">
         <v>92</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G130" s="5">
         <v>5</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I130" s="1">
         <v>2019</v>
@@ -5510,28 +5507,28 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B131" s="1">
         <v>137647317</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D131" s="1">
         <v>91</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G131" s="5">
         <v>4</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I131" s="1">
         <v>2019</v>
@@ -5542,28 +5539,28 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B132" s="1">
         <v>196070313</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D132" s="1">
         <v>90</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G132" s="5">
         <v>3</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I132" s="1">
         <v>2019</v>
@@ -5574,28 +5571,28 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B133" s="1">
         <v>174382383</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D133" s="1">
         <v>89</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G133" s="5">
         <v>2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I133" s="1">
         <v>2019</v>
@@ -5606,28 +5603,28 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B134" s="1">
         <v>189600467</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D134" s="1">
         <v>95</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G134" s="5">
         <v>1</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I134" s="1">
         <v>2019</v>
@@ -5638,28 +5635,28 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" s="1">
         <v>16278812</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D135" s="1">
         <v>31</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G135" s="5">
         <v>33</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I135" s="1">
         <v>2019</v>
@@ -5670,28 +5667,28 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B136" s="1">
         <v>13102188</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1">
         <v>37</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G136" s="5">
         <v>32</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I136" s="1">
         <v>2019</v>
@@ -5702,28 +5699,28 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B137" s="1">
         <v>17551322</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D137" s="1">
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G137" s="5">
         <v>31</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I137" s="1">
         <v>2019</v>
@@ -5734,28 +5731,28 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B138" s="1">
         <v>12039561</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D138" s="1">
         <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G138" s="5">
         <v>30</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I138" s="1">
         <v>2019</v>
@@ -5766,28 +5763,28 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B139" s="1">
         <v>18274268</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D139" s="1">
         <v>35</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G139" s="5">
         <v>29</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139" s="1">
         <v>2019</v>
@@ -5798,28 +5795,28 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B140" s="1">
         <v>12149851</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D140" s="1">
         <v>23</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G140" s="5">
         <v>28</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140" s="1">
         <v>2019</v>
@@ -5830,28 +5827,28 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B141" s="1">
         <v>12262599</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D141" s="1">
         <v>27</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G141" s="5">
         <v>27</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I141" s="1">
         <v>2019</v>
@@ -5862,28 +5859,28 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" s="1">
         <v>4649580</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D142" s="1">
         <v>23</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G142" s="5">
         <v>26</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I142" s="1">
         <v>2019</v>
@@ -5894,28 +5891,28 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B143" s="1">
         <v>7074798</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D143" s="1">
         <v>33</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G143" s="5">
         <v>25</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I143" s="1">
         <v>2019</v>
@@ -5926,28 +5923,28 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B144" s="1">
         <v>6436893</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D144" s="1">
         <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G144" s="5">
         <v>24</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144" s="1">
         <v>2019</v>
@@ -5958,28 +5955,28 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145" s="1">
         <v>8930819</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D145" s="1">
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G145" s="5">
         <v>23</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="1">
         <v>2019</v>
@@ -5990,28 +5987,28 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B146" s="1">
         <v>11464786</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D146" s="1">
         <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G146" s="5">
         <v>22</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I146" s="1">
         <v>2019</v>
@@ -6022,28 +6019,28 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B147" s="1">
         <v>10883302</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D147" s="1">
         <v>27</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G147" s="5">
         <v>21</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I147" s="1">
         <v>2019</v>
@@ -6054,13 +6051,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B148" s="1">
         <v>8148211</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D148" s="1">
         <v>28</v>
@@ -6069,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G148" s="5">
         <v>20</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I148" s="1">
         <v>2019</v>
@@ -6086,13 +6083,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B149" s="1">
         <v>14188900</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D149" s="1">
         <v>24</v>
@@ -6101,13 +6098,13 @@
         <v>0</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G149" s="5">
         <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I149" s="1">
         <v>2019</v>
@@ -6118,13 +6115,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B150" s="1">
         <v>16243713</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D150" s="1">
         <v>32</v>
@@ -6133,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G150" s="5">
         <v>18</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I150" s="1">
         <v>2019</v>
@@ -6150,13 +6147,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B151" s="1">
         <v>33434265</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D151" s="1">
         <v>24</v>
@@ -6165,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G151" s="5">
         <v>17</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I151" s="1">
         <v>2019</v>
@@ -6182,28 +6179,28 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B152" s="1">
         <v>5942761</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D152" s="1">
         <v>26</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G152" s="5">
         <v>16</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I152" s="1">
         <v>2019</v>
@@ -6214,28 +6211,28 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B153" s="1">
         <v>12093170</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D153" s="1">
         <v>27</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G153" s="5">
         <v>15</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I153" s="1">
         <v>2019</v>
@@ -6246,28 +6243,28 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B154" s="1">
         <v>8693707</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D154" s="1">
         <v>31</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G154" s="5">
         <v>14</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I154" s="1">
         <v>2019</v>
@@ -6278,28 +6275,28 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B155" s="1">
         <v>7722525</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D155" s="1">
         <v>33</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G155" s="5">
         <v>13</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I155" s="1">
         <v>2019</v>
@@ -6310,28 +6307,28 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B156" s="1">
         <v>8778689</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D156" s="1">
         <v>47</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G156" s="5">
         <v>12</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I156" s="1">
         <v>2019</v>
@@ -6342,28 +6339,28 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B157" s="1">
         <v>12285352</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D157" s="1">
         <v>30</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G157" s="5">
         <v>11</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I157" s="1">
         <v>2019</v>
@@ -6374,28 +6371,28 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B158" s="1">
         <v>17748954</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D158" s="1">
         <v>28</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G158" s="5">
         <v>10</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I158" s="1">
         <v>2019</v>
@@ -6406,28 +6403,28 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B159" s="1">
         <v>11715564</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D159" s="1">
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G159" s="5">
         <v>9</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I159" s="1">
         <v>2019</v>
@@ -6438,28 +6435,28 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B160" s="1">
         <v>9609928</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" s="1">
         <v>30</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G160" s="5">
         <v>8</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I160" s="1">
         <v>2019</v>
@@ -6470,28 +6467,28 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" s="1">
         <v>13838500</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D161" s="1">
         <v>37</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G161" s="5">
         <v>7</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I161" s="1">
         <v>2019</v>
@@ -6502,28 +6499,28 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="1">
         <v>16611360</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D162" s="1">
         <v>31</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G162" s="5">
         <v>6</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I162" s="1">
         <v>2019</v>
@@ -6534,28 +6531,28 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="1">
         <v>13600259</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D163" s="1">
         <v>26</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G163" s="5">
         <v>5</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I163" s="1">
         <v>2019</v>
@@ -6566,28 +6563,28 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B164" s="1">
         <v>14839396</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D164" s="1">
         <v>28</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G164" s="5">
         <v>4</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I164" s="1">
         <v>2019</v>
@@ -6598,28 +6595,28 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B165" s="1">
         <v>12520236</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D165" s="1">
         <v>27</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G165" s="5">
         <v>3</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I165" s="1">
         <v>2019</v>
@@ -6630,28 +6627,28 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B166" s="1">
         <v>13381750</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D166" s="1">
         <v>27</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G166" s="5">
         <v>2</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I166" s="1">
         <v>2019</v>
@@ -6662,28 +6659,28 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" s="1">
         <v>20117827</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D167" s="1">
         <v>26</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G167" s="5">
         <v>1</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I167" s="1">
         <v>2019</v>
@@ -6694,28 +6691,28 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B168" s="1">
         <v>857404</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D168" s="1">
         <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G168" s="5">
         <v>33</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I168" s="1">
         <v>2019</v>
@@ -6726,28 +6723,28 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B169" s="1">
         <v>1643350</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D169" s="1">
         <v>25</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G169" s="5">
         <v>32</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I169" s="1">
         <v>2019</v>
@@ -6758,28 +6755,28 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B170" s="1">
         <v>1863611</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D170" s="1">
         <v>25</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G170" s="5">
         <v>31</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I170" s="1">
         <v>2019</v>
@@ -6790,28 +6787,28 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B171" s="1">
         <v>1986843</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D171" s="1">
         <v>23</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G171" s="5">
         <v>30</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I171" s="1">
         <v>2019</v>
@@ -6822,28 +6819,28 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B172" s="1">
         <v>2336444</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D172" s="1">
         <v>25</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G172" s="5">
         <v>29</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I172" s="1">
         <v>2019</v>
@@ -6854,28 +6851,28 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B173" s="1">
         <v>912196</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D173" s="1">
         <v>23</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G173" s="5">
         <v>28</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I173" s="1">
         <v>2019</v>
@@ -6886,28 +6883,28 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B174" s="1">
         <v>2063632</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D174" s="1">
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G174" s="5">
         <v>27</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I174" s="1">
         <v>2019</v>
@@ -6918,28 +6915,28 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B175" s="1">
         <v>1535966</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D175" s="1">
         <v>25</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G175" s="5">
         <v>26</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I175" s="1">
         <v>2019</v>
@@ -6950,28 +6947,28 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B176" s="1">
         <v>1101737</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D176" s="1">
         <v>23</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G176" s="5">
         <v>25</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I176" s="1">
         <v>2019</v>
@@ -6982,28 +6979,28 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B177" s="1">
         <v>899852</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D177" s="1">
         <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G177" s="5">
         <v>24</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I177" s="1">
         <v>2019</v>
@@ -7014,28 +7011,28 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B178" s="1">
         <v>932468</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D178" s="1">
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G178" s="5">
         <v>23</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I178" s="1">
         <v>2019</v>
@@ -7046,28 +7043,28 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B179" s="1">
         <v>864292</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D179" s="1">
         <v>22</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G179" s="5">
         <v>22</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I179" s="1">
         <v>2019</v>
@@ -7078,28 +7075,28 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B180" s="1">
         <v>1007599</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D180" s="1">
         <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G180" s="5">
         <v>21</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I180" s="1">
         <v>2019</v>
@@ -7110,28 +7107,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" s="1">
         <v>947563</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D181" s="1">
         <v>29</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G181" s="5">
         <v>20</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I181" s="1">
         <v>2019</v>
@@ -7142,13 +7139,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" s="1">
         <v>854335</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D182" s="1">
         <v>29</v>
@@ -7157,13 +7154,13 @@
         <v>0</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G182" s="5">
         <v>19</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I182" s="1">
         <v>2019</v>
@@ -7174,13 +7171,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B183" s="1">
         <v>1790652</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D183" s="1">
         <v>28</v>
@@ -7189,13 +7186,13 @@
         <v>0</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G183" s="5">
         <v>18</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I183" s="1">
         <v>2019</v>
@@ -7206,13 +7203,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B184" s="1">
         <v>3034371</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D184" s="1">
         <v>26</v>
@@ -7221,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G184" s="5">
         <v>17</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I184" s="1">
         <v>2019</v>
@@ -7238,28 +7235,28 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B185" s="1">
         <v>1234530</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D185" s="1">
         <v>27</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G185" s="5">
         <v>16</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I185" s="1">
         <v>2019</v>
@@ -7270,28 +7267,28 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="1">
         <v>739133</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D186" s="1">
         <v>25</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G186" s="5">
         <v>15</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I186" s="1">
         <v>2019</v>
@@ -7302,28 +7299,28 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" s="1">
         <v>955282</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D187" s="1">
         <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G187" s="5">
         <v>14</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I187" s="1">
         <v>2019</v>
@@ -7334,28 +7331,28 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B188" s="1">
         <v>1058669</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D188" s="1">
         <v>26</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G188" s="5">
         <v>13</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I188" s="1">
         <v>2019</v>
@@ -7366,28 +7363,28 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" s="1">
         <v>1184243</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D189" s="1">
         <v>25</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F189" t="s">
-        <v>302</v>
+        <v>1</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="G189" s="5">
         <v>12</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I189" s="1">
         <v>2019</v>
@@ -7398,28 +7395,28 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B190" s="1">
         <v>1086208</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D190" s="1">
         <v>31</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G190" s="5">
         <v>11</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I190" s="1">
         <v>2019</v>
@@ -7430,28 +7427,28 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B191" s="1">
         <v>1337198</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D191" s="1">
         <v>22</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G191" s="5">
         <v>10</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I191" s="1">
         <v>2019</v>
@@ -7462,28 +7459,28 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B192" s="1">
         <v>875674</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D192" s="1">
         <v>31</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G192" s="5">
         <v>9</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I192" s="1">
         <v>2019</v>
@@ -7494,28 +7491,28 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" s="1">
         <v>884029</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D193" s="1">
         <v>23</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G193" s="5">
         <v>8</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I193" s="1">
         <v>2019</v>
@@ -7526,28 +7523,28 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" s="1">
         <v>858494</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D194" s="1">
         <v>28</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G194" s="5">
         <v>7</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I194" s="1">
         <v>2019</v>
@@ -7558,28 +7555,28 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" s="1">
         <v>773787</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D195" s="1">
         <v>26</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G195" s="5">
         <v>6</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I195" s="1">
         <v>2019</v>
@@ -7590,28 +7587,28 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" s="1">
         <v>1121894</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D196" s="1">
         <v>25</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G196" s="5">
         <v>5</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I196" s="1">
         <v>2019</v>
@@ -7622,28 +7619,28 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197" s="1">
         <v>912303</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D197" s="1">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G197" s="5">
         <v>4</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I197" s="1">
         <v>2019</v>
@@ -7654,28 +7651,28 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" s="1">
         <v>774425</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D198" s="1">
         <v>25</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G198" s="5">
         <v>3</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I198" s="1">
         <v>2019</v>
@@ -7686,28 +7683,28 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B199" s="1">
         <v>894015</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D199" s="1">
         <v>21</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G199" s="5">
         <v>2</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I199" s="1">
         <v>2019</v>
@@ -7718,28 +7715,28 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B200" s="1">
         <v>1307028</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D200" s="1">
         <v>22</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G200" s="5">
         <v>1</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I200" s="1">
         <v>2019</v>
@@ -7750,28 +7747,28 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" s="1">
         <v>9629896</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D201" s="1">
         <v>48</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G201" s="5">
         <v>33</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I201" s="1">
         <v>2019</v>
@@ -7782,28 +7779,28 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B202" s="1">
         <v>9203116</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D202" s="1">
         <v>45</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G202" s="5">
         <v>32</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I202" s="1">
         <v>2019</v>
@@ -7814,28 +7811,28 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B203" s="1">
         <v>11634122</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203" s="1">
         <v>41</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G203" s="5">
         <v>31</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I203" s="1">
         <v>2019</v>
@@ -7846,28 +7843,28 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B204" s="1">
         <v>12593716</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D204" s="1">
         <v>38</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G204" s="5">
         <v>30</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I204" s="1">
         <v>2019</v>
@@ -7878,28 +7875,28 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B205" s="1">
         <v>21024860</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D205" s="1">
         <v>43</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G205" s="5">
         <v>29</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I205" s="1">
         <v>2019</v>
@@ -7910,28 +7907,28 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B206" s="1">
         <v>14891613</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D206" s="1">
         <v>35</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G206" s="5">
         <v>28</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I206" s="1">
         <v>2019</v>
@@ -7942,28 +7939,28 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B207" s="1">
         <v>17818246</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D207" s="1">
         <v>40</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G207" s="5">
         <v>27</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I207" s="1">
         <v>2019</v>
@@ -7974,28 +7971,28 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B208" s="1">
         <v>13309418</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D208" s="1">
         <v>34</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G208" s="5">
         <v>26</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I208" s="1">
         <v>2019</v>
@@ -8006,28 +8003,28 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B209" s="1">
         <v>12736325</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D209" s="1">
         <v>34</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G209" s="5">
         <v>25</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I209" s="1">
         <v>2019</v>
@@ -8038,28 +8035,28 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B210" s="1">
         <v>8847979</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D210" s="1">
         <v>35</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G210" s="5">
         <v>24</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I210" s="1">
         <v>2019</v>
@@ -8070,28 +8067,28 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B211" s="1">
         <v>11322315</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D211" s="1">
         <v>50</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G211" s="5">
         <v>23</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I211" s="1">
         <v>2019</v>
@@ -8102,28 +8099,28 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B212" s="1">
         <v>12442253</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D212" s="1">
         <v>44</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G212" s="5">
         <v>22</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I212" s="1">
         <v>2019</v>
@@ -8134,28 +8131,28 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B213" s="1">
         <v>11647417</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D213" s="1">
         <v>43</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G213" s="5">
         <v>21</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I213" s="1">
         <v>2019</v>
@@ -8166,28 +8163,28 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B214" s="1">
         <v>9758113</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D214" s="1">
         <v>34</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G214" s="5">
         <v>20</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I214" s="1">
         <v>2019</v>
@@ -8198,13 +8195,13 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B215" s="1">
         <v>11405925</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D215" s="1">
         <v>39</v>
@@ -8213,13 +8210,13 @@
         <v>0</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G215" s="5">
         <v>19</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I215" s="1">
         <v>2019</v>
@@ -8230,13 +8227,13 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B216" s="1">
         <v>12552842</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D216" s="1">
         <v>47</v>
@@ -8245,13 +8242,13 @@
         <v>0</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G216" s="5">
         <v>18</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I216" s="1">
         <v>2019</v>
@@ -8262,13 +8259,13 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B217" s="1">
         <v>27543919</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D217" s="1">
         <v>48</v>
@@ -8277,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G217" s="5">
         <v>17</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I217" s="1">
         <v>2019</v>
@@ -8294,28 +8291,28 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B218" s="1">
         <v>8816077</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D218" s="1">
         <v>45</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G218" s="5">
         <v>16</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I218" s="1">
         <v>2019</v>
@@ -8326,28 +8323,28 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B219" s="1">
         <v>9525395</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D219" s="1">
         <v>43</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G219" s="5">
         <v>15</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I219" s="1">
         <v>2019</v>
@@ -8358,28 +8355,28 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B220" s="1">
         <v>9414734</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D220" s="1">
         <v>54</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G220" s="5">
         <v>14</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I220" s="1">
         <v>2019</v>
@@ -8390,28 +8387,28 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B221" s="1">
         <v>10209267</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D221" s="1">
         <v>33</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G221" s="5">
         <v>13</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I221" s="1">
         <v>2019</v>
@@ -8422,28 +8419,28 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B222" s="1">
         <v>7366156</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D222" s="1">
         <v>67</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G222" s="5">
         <v>12</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I222" s="1">
         <v>2019</v>
@@ -8454,28 +8451,28 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B223" s="1">
         <v>8446698</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D223" s="1">
         <v>48</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G223" s="5">
         <v>11</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I223" s="1">
         <v>2019</v>
@@ -8486,28 +8483,28 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B224" s="1">
         <v>13057421</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D224" s="1">
         <v>36</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G224" s="5">
         <v>10</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I224" s="1">
         <v>2019</v>
@@ -8518,28 +8515,28 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B225" s="1">
         <v>6533284</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D225" s="1">
         <v>58</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G225" s="5">
         <v>9</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I225" s="1">
         <v>2019</v>
@@ -8550,28 +8547,28 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B226" s="1">
         <v>6921451</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D226" s="1">
         <v>51</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G226" s="5">
         <v>8</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I226" s="1">
         <v>2019</v>
@@ -8582,28 +8579,28 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B227" s="1">
         <v>9308123</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D227" s="1">
         <v>51</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G227" s="5">
         <v>7</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I227" s="1">
         <v>2019</v>
@@ -8614,28 +8611,28 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B228" s="1">
         <v>7208491</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D228" s="1">
         <v>48</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G228" s="5">
         <v>6</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I228" s="1">
         <v>2019</v>
@@ -8646,28 +8643,28 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B229" s="1">
         <v>8541203</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D229" s="1">
         <v>48</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G229" s="5">
         <v>5</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I229" s="1">
         <v>2019</v>
@@ -8678,28 +8675,28 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B230" s="1">
         <v>12894530</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D230" s="1">
         <v>52</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G230" s="5">
         <v>4</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I230" s="1">
         <v>2019</v>
@@ -8710,28 +8707,28 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B231" s="1">
         <v>13488154</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D231" s="1">
         <v>45</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G231" s="5">
         <v>3</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I231" s="1">
         <v>2019</v>
@@ -8742,28 +8739,28 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B232" s="1">
         <v>14260768</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D232" s="1">
         <v>47</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G232" s="5">
         <v>2</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I232" s="1">
         <v>2019</v>
@@ -8774,28 +8771,28 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B233" s="1">
         <v>19294372</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D233" s="1">
         <v>48</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G233" s="5">
         <v>1</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I233" s="1">
         <v>2019</v>

--- a/BD-bilheteria2.xlsx
+++ b/BD-bilheteria2.xlsx
@@ -1327,8 +1327,8 @@
   <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5874,7 +5874,7 @@
         <v>144</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G142" s="5">
         <v>26</v>
@@ -5906,7 +5906,7 @@
         <v>297</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G143" s="5">
         <v>25</v>
@@ -5938,7 +5938,7 @@
         <v>297</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G144" s="5">
         <v>24</v>
@@ -5970,7 +5970,7 @@
         <v>297</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G145" s="5">
         <v>23</v>
@@ -6002,7 +6002,7 @@
         <v>297</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G146" s="5">
         <v>22</v>
